--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/ms-website-fall-2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10FDA31F-9596-AC45-8D0C-F6DA357E1338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35417893-AF95-F549-8B16-EED455A24540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="170">
   <si>
     <t>Day</t>
   </si>
@@ -486,9 +486,6 @@
     <t>Content</t>
   </si>
   <si>
-    <t>IMS Chapter 1</t>
-  </si>
-  <si>
     <t>In this starter assignment, we are just going to try and test that everyone can go through and utilize some of the basic technologies we will use in the class, including Excel Solver.</t>
   </si>
   <si>
@@ -534,15 +531,9 @@
     <t>assignments/02starter</t>
   </si>
   <si>
-    <t>IMS Chapter 2</t>
-  </si>
-  <si>
     <t>https://forms.gle/6T7UdT7dZWboufeS7</t>
   </si>
   <si>
-    <t>https://eurl.io/#YnuX1CwNt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please review the syllabus to ensure you have an understanding of expectations for the class. </t>
   </si>
   <si>
@@ -553,6 +544,9 @@
   </si>
   <si>
     <t>files/syllabus.pdf</t>
+  </si>
+  <si>
+    <t>https://eurl.io/#KijTiY1Sa</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2093,7 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2137,7 +2131,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2205,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -2235,7 +2229,7 @@
         <v>117</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -7957,7 +7951,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7977,10 +7971,10 @@
         <v>148</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7988,13 +7982,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8002,10 +7996,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -8016,31 +8010,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17">
+    <row r="5" spans="1:4">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>149</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="17">
+    <row r="6" spans="1:4">
       <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>165</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:4">
@@ -8165,10 +8155,10 @@
         <v>148</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
@@ -8179,7 +8169,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
@@ -8193,7 +8183,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>96</v>
@@ -8204,10 +8194,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>162</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>163</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8508,13 +8498,13 @@
         <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
@@ -8522,16 +8512,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>151</v>
       </c>
       <c r="D2" s="28">
         <v>44081</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
@@ -8539,10 +8529,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="27">
         <v>44084</v>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35417893-AF95-F549-8B16-EED455A24540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D54FC4-2193-8348-9E0B-BC538D314DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="168">
   <si>
     <t>Day</t>
   </si>
@@ -475,12 +475,6 @@
   </si>
   <si>
     <t>Review for Exam2</t>
-  </si>
-  <si>
-    <t>Review for Final</t>
-  </si>
-  <si>
-    <t>Linear Programming 1</t>
   </si>
   <si>
     <t>Content</t>
@@ -1092,7 +1086,7 @@
   <dimension ref="A2:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E36"/>
+      <selection activeCell="A4" sqref="A4:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2093,7 +2087,7 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2131,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2141,14 +2135,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V955"/>
+  <dimension ref="A1:V921"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -2202,10 +2196,10 @@
         <v>Mon</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -2226,10 +2220,10 @@
         <v>Thu</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -2270,7 +2264,7 @@
         <v>Tue</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>143</v>
@@ -2295,7 +2289,7 @@
         <v>Thu</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>143</v>
@@ -2320,7 +2314,7 @@
         <v>Mon</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>143</v>
@@ -2345,7 +2339,7 @@
         <v>Thu</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>143</v>
@@ -2370,7 +2364,7 @@
         <v>Mon</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>143</v>
@@ -2395,7 +2389,7 @@
         <v>Thu</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>143</v>
@@ -2435,7 +2429,7 @@
         <v>Mon</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>143</v>
@@ -2475,7 +2469,7 @@
         <v>Thu</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>143</v>
@@ -2515,7 +2509,7 @@
         <v>Mon</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>143</v>
@@ -2555,7 +2549,7 @@
         <v>Thu</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>143</v>
@@ -2631,7 +2625,7 @@
         <v>Thu</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>143</v>
@@ -2671,7 +2665,7 @@
         <v>Mon</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>143</v>
@@ -2711,7 +2705,7 @@
         <v>Thu</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>143</v>
@@ -2751,7 +2745,7 @@
         <v>Mon</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>143</v>
@@ -2791,7 +2785,7 @@
         <v>Thu</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>143</v>
@@ -2831,7 +2825,7 @@
         <v>Mon</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>143</v>
@@ -2871,7 +2865,7 @@
         <v>Thu</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>143</v>
@@ -2911,7 +2905,7 @@
         <v>Mon</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>143</v>
@@ -2951,7 +2945,7 @@
         <v>Thu</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>143</v>
@@ -2991,7 +2985,7 @@
         <v>Mon</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>143</v>
@@ -3031,7 +3025,7 @@
         <v>Thu</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>143</v>
@@ -3107,7 +3101,7 @@
         <v>Thu</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>143</v>
@@ -3146,7 +3140,7 @@
         <v>Mon</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>143</v>
@@ -3186,7 +3180,7 @@
         <v>Thu</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>143</v>
@@ -3226,7 +3220,7 @@
         <v>Mon</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>143</v>
@@ -3265,8 +3259,8 @@
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>146</v>
+      <c r="E32" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>143</v>
@@ -7764,180 +7758,10 @@
       <c r="E921" s="23"/>
       <c r="F921" s="23"/>
     </row>
-    <row r="922" spans="4:6">
-      <c r="D922" s="20"/>
-      <c r="E922" s="23"/>
-      <c r="F922" s="23"/>
-    </row>
-    <row r="923" spans="4:6">
-      <c r="D923" s="20"/>
-      <c r="E923" s="23"/>
-      <c r="F923" s="23"/>
-    </row>
-    <row r="924" spans="4:6">
-      <c r="D924" s="20"/>
-      <c r="E924" s="23"/>
-      <c r="F924" s="23"/>
-    </row>
-    <row r="925" spans="4:6">
-      <c r="D925" s="20"/>
-      <c r="E925" s="23"/>
-      <c r="F925" s="23"/>
-    </row>
-    <row r="926" spans="4:6">
-      <c r="D926" s="20"/>
-      <c r="E926" s="23"/>
-      <c r="F926" s="23"/>
-    </row>
-    <row r="927" spans="4:6">
-      <c r="D927" s="20"/>
-      <c r="E927" s="23"/>
-      <c r="F927" s="23"/>
-    </row>
-    <row r="928" spans="4:6">
-      <c r="D928" s="20"/>
-      <c r="E928" s="23"/>
-      <c r="F928" s="23"/>
-    </row>
-    <row r="929" spans="4:6">
-      <c r="D929" s="20"/>
-      <c r="E929" s="23"/>
-      <c r="F929" s="23"/>
-    </row>
-    <row r="930" spans="4:6">
-      <c r="D930" s="20"/>
-      <c r="E930" s="23"/>
-      <c r="F930" s="23"/>
-    </row>
-    <row r="931" spans="4:6">
-      <c r="D931" s="20"/>
-      <c r="E931" s="23"/>
-      <c r="F931" s="23"/>
-    </row>
-    <row r="932" spans="4:6">
-      <c r="D932" s="20"/>
-      <c r="E932" s="23"/>
-      <c r="F932" s="23"/>
-    </row>
-    <row r="933" spans="4:6">
-      <c r="D933" s="20"/>
-      <c r="E933" s="23"/>
-      <c r="F933" s="23"/>
-    </row>
-    <row r="934" spans="4:6">
-      <c r="D934" s="20"/>
-      <c r="E934" s="23"/>
-      <c r="F934" s="23"/>
-    </row>
-    <row r="935" spans="4:6">
-      <c r="D935" s="20"/>
-      <c r="E935" s="23"/>
-      <c r="F935" s="23"/>
-    </row>
-    <row r="936" spans="4:6">
-      <c r="D936" s="20"/>
-      <c r="E936" s="23"/>
-      <c r="F936" s="23"/>
-    </row>
-    <row r="937" spans="4:6">
-      <c r="D937" s="20"/>
-      <c r="E937" s="23"/>
-      <c r="F937" s="23"/>
-    </row>
-    <row r="938" spans="4:6">
-      <c r="D938" s="20"/>
-      <c r="E938" s="23"/>
-      <c r="F938" s="23"/>
-    </row>
-    <row r="939" spans="4:6">
-      <c r="D939" s="20"/>
-      <c r="E939" s="23"/>
-      <c r="F939" s="23"/>
-    </row>
-    <row r="940" spans="4:6">
-      <c r="D940" s="20"/>
-      <c r="E940" s="23"/>
-      <c r="F940" s="23"/>
-    </row>
-    <row r="941" spans="4:6">
-      <c r="D941" s="20"/>
-      <c r="E941" s="23"/>
-      <c r="F941" s="23"/>
-    </row>
-    <row r="942" spans="4:6">
-      <c r="D942" s="20"/>
-      <c r="E942" s="23"/>
-      <c r="F942" s="23"/>
-    </row>
-    <row r="943" spans="4:6">
-      <c r="D943" s="20"/>
-      <c r="E943" s="23"/>
-      <c r="F943" s="23"/>
-    </row>
-    <row r="944" spans="4:6">
-      <c r="D944" s="20"/>
-      <c r="E944" s="23"/>
-      <c r="F944" s="23"/>
-    </row>
-    <row r="945" spans="4:6">
-      <c r="D945" s="20"/>
-      <c r="E945" s="23"/>
-      <c r="F945" s="23"/>
-    </row>
-    <row r="946" spans="4:6">
-      <c r="D946" s="20"/>
-      <c r="E946" s="23"/>
-      <c r="F946" s="23"/>
-    </row>
-    <row r="947" spans="4:6">
-      <c r="D947" s="20"/>
-      <c r="E947" s="23"/>
-      <c r="F947" s="23"/>
-    </row>
-    <row r="948" spans="4:6">
-      <c r="D948" s="20"/>
-      <c r="E948" s="23"/>
-      <c r="F948" s="23"/>
-    </row>
-    <row r="949" spans="4:6">
-      <c r="D949" s="20"/>
-      <c r="E949" s="23"/>
-      <c r="F949" s="23"/>
-    </row>
-    <row r="950" spans="4:6">
-      <c r="D950" s="20"/>
-      <c r="E950" s="23"/>
-      <c r="F950" s="23"/>
-    </row>
-    <row r="951" spans="4:6">
-      <c r="D951" s="20"/>
-      <c r="E951" s="23"/>
-      <c r="F951" s="23"/>
-    </row>
-    <row r="952" spans="4:6">
-      <c r="D952" s="20"/>
-      <c r="E952" s="23"/>
-      <c r="F952" s="23"/>
-    </row>
-    <row r="953" spans="4:6">
-      <c r="D953" s="20"/>
-      <c r="E953" s="23"/>
-      <c r="F953" s="23"/>
-    </row>
-    <row r="954" spans="4:6">
-      <c r="D954" s="20"/>
-      <c r="E954" s="23"/>
-      <c r="F954" s="23"/>
-    </row>
-    <row r="955" spans="4:6">
-      <c r="D955" s="20"/>
-      <c r="E955" s="23"/>
-      <c r="F955" s="23"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{05D1C1BB-0A92-2A4F-B33D-774626814BE3}"/>
-    <hyperlink ref="D3:D32" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{05BD6401-7D66-A64E-9D24-F6E46568B802}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{3B3B064A-CAD1-F04D-9E76-F64F4182351D}"/>
+    <hyperlink ref="D3:D32" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{E61C8CFB-3A62-8540-801C-F724904595E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7948,7 +7772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
@@ -7968,13 +7792,13 @@
         <v>95</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7982,13 +7806,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7996,10 +7820,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -8010,10 +7834,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8152,13 +7976,13 @@
         <v>95</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
@@ -8169,7 +7993,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
@@ -8183,7 +8007,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>96</v>
@@ -8194,10 +8018,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8498,13 +8322,13 @@
         <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
@@ -8512,16 +8336,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" s="28">
         <v>44081</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
@@ -8529,10 +8353,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="27">
         <v>44084</v>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D54FC4-2193-8348-9E0B-BC538D314DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9EFCE0-0754-EB44-862D-C055725D7564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="233">
   <si>
     <t>Day</t>
   </si>
@@ -498,24 +488,12 @@
     <t>Location</t>
   </si>
   <si>
-    <t xml:space="preserve">In this class we will simply be providing a high level overview of the class.  We will introduce the basics of the concepts and the approaches used. </t>
-  </si>
-  <si>
     <t>Schedule Tab</t>
   </si>
   <si>
     <t>Whether or not session/assignment info should be published (0/1).</t>
   </si>
   <si>
-    <t>More detail on specific approches.</t>
-  </si>
-  <si>
-    <t>notebooks/python-overview</t>
-  </si>
-  <si>
-    <t>notebooks/datastructures</t>
-  </si>
-  <si>
     <t>Kaggle</t>
   </si>
   <si>
@@ -541,6 +519,213 @@
   </si>
   <si>
     <t>https://eurl.io/#KijTiY1Sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this class we motivate the overall field of data science, machine learning, and the emerging area of AI.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This class introduces some basic computational background the Python computational environment, packages, colab, linux command line, git.  Introduction to coding includes basic data structures (sets, dictionaries, lists) along with packages specific for analytics (Numpy and Pandas). </t>
+  </si>
+  <si>
+    <t>Lab/Homework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. </t>
+  </si>
+  <si>
+    <t>Lab/homework</t>
+  </si>
+  <si>
+    <t>Introduction to visualiation,  APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We examine the basics of classess of supervised, unsupervised, reenforcement learning. Also examine overfitting and how cross validation is used for overfitting and how hypterparameters are used to optimize models. </t>
+  </si>
+  <si>
+    <t>The goal of this class is to get you familiar to using R. While we will be Jupyter notebooks, we will also examine using RStudio. Now that you have already started with Python, many of the concepts will map.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression models similarly a a major type of machine learning application.  In this </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsupervised models are frequently used to subset data into subpoluations or to generate features.  </t>
+  </si>
+  <si>
+    <t>Midterm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no class, but will be available for meeting about project during class time and office hours. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. </t>
+  </si>
+  <si>
+    <t>The goal of this class is to investigate basic concepts surrounding text mining.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image data is different and deep learning has transformed the ability of machines to process image data. In this lecture we will get an overview of image processing and deep learning techniques. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increasingly there are tools to automate the process of selecting models. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The goal is to get you familiar with Spark and the general big data infrastructure. </t>
+  </si>
+  <si>
+    <t>Chapter 1: The Machine Learning Landscape</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/</t>
+  </si>
+  <si>
+    <t>The Unix Shell</t>
+  </si>
+  <si>
+    <t>http://swcarpentry.github.io/shell-novice/</t>
+  </si>
+  <si>
+    <t>Command Line Cheat Sheet</t>
+  </si>
+  <si>
+    <t>https://www.git-tower.com/blog/command-line-cheat-sheet/</t>
+  </si>
+  <si>
+    <t>The Hitchhikers Guide to Python - Code Style</t>
+  </si>
+  <si>
+    <t>https://docs.python-guide.org/writing/style/</t>
+  </si>
+  <si>
+    <t>Getting Started with Python Environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 </t>
+  </si>
+  <si>
+    <t>Chapter 2: End to End Machine Learning Project</t>
+  </si>
+  <si>
+    <t>What is an API?</t>
+  </si>
+  <si>
+    <t>https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/</t>
+  </si>
+  <si>
+    <t>What is an API Economy?</t>
+  </si>
+  <si>
+    <t>https://www.mulesoft.com/resources/api/what-is-an-api-economy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revew the documentation of Twitter API for the end point get User Timelines. </t>
+  </si>
+  <si>
+    <t>https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html</t>
+  </si>
+  <si>
+    <t>Building a web scraper</t>
+  </si>
+  <si>
+    <t>https://www.dataquest.io/blog/web-scraping-tutorial-python/</t>
+  </si>
+  <si>
+    <t>10 Best Visualization Examples</t>
+  </si>
+  <si>
+    <t>https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples</t>
+  </si>
+  <si>
+    <t>Regex Cheatsheet</t>
+  </si>
+  <si>
+    <t>https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285</t>
+  </si>
+  <si>
+    <t>Chapter 3: Classifiication</t>
+  </si>
+  <si>
+    <t>Under and Overfitting in Machine Learning</t>
+  </si>
+  <si>
+    <t>https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76</t>
+  </si>
+  <si>
+    <t>R for Data Science (Skim through book and understand it is available as a reference if needed.)</t>
+  </si>
+  <si>
+    <t>https://r4ds.had.co.nz</t>
+  </si>
+  <si>
+    <t>RStudio Cloud</t>
+  </si>
+  <si>
+    <t>https://rstudio.cloud/project/232375</t>
+  </si>
+  <si>
+    <t>Chapter 4: Training Models</t>
+  </si>
+  <si>
+    <t>Chapter 8: Dimensionality Reduction; Chapter 9 Unsupervised Machine Learning</t>
+  </si>
+  <si>
+    <t>Chapter 6: Decision Trees</t>
+  </si>
+  <si>
+    <t>Chapter 7: Ensembe Learning and Random Forrests</t>
+  </si>
+  <si>
+    <t>Chapter 10: Introduction to Artifical Neural Networks with Keras</t>
+  </si>
+  <si>
+    <t>Chapter 11: Training Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>Chapter 12: Custom Models and Training with Tensorflow</t>
+  </si>
+  <si>
+    <t>notebooks/01-intro-python/01-python-overview</t>
+  </si>
+  <si>
+    <t>notebooks/01-intro-python/02-datastructures</t>
+  </si>
+  <si>
+    <t>notebooks/01-intro-python/03-numpy</t>
+  </si>
+  <si>
+    <t>notebooks/01-intro-python/04-pandas</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/02-functions</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/03-null-values</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/04-groupby</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/04-pivottable</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/05-kaggle-baseline</t>
+  </si>
+  <si>
+    <t>Numpy</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Fuctions</t>
+  </si>
+  <si>
+    <t>Null Values</t>
+  </si>
+  <si>
+    <t>Groupby</t>
+  </si>
+  <si>
+    <t>Pivot Tables</t>
   </si>
 </sst>
 </file>
@@ -761,13 +946,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2087,7 +2272,7 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2125,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2137,12 +2322,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V921"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -2181,7 +2366,7 @@
       </c>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" ht="34">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2198,8 +2383,8 @@
       <c r="E2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>153</v>
+      <c r="F2" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -2222,8 +2407,8 @@
       <c r="E3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>156</v>
+      <c r="F3" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -2244,12 +2429,12 @@
       <c r="E4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="22"/>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" ht="17">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2266,14 +2451,14 @@
       <c r="E5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>143</v>
+      <c r="F5" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="68">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -2291,14 +2476,14 @@
       <c r="E6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>143</v>
+      <c r="F6" s="35" t="s">
+        <v>167</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="17">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2316,14 +2501,14 @@
       <c r="E7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>143</v>
+      <c r="F7" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" ht="68">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -2341,14 +2526,14 @@
       <c r="E8" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>143</v>
+      <c r="F8" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="17">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -2366,14 +2551,14 @@
       <c r="E9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>143</v>
+      <c r="F9" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" ht="51">
       <c r="A10" s="11">
         <v>4</v>
       </c>
@@ -2391,8 +2576,8 @@
       <c r="E10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>143</v>
+      <c r="F10" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2413,7 +2598,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" ht="17">
       <c r="A11" s="11">
         <v>5</v>
       </c>
@@ -2431,8 +2616,8 @@
       <c r="E11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>143</v>
+      <c r="F11" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -2453,7 +2638,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" ht="51">
       <c r="A12" s="11">
         <v>5</v>
       </c>
@@ -2471,8 +2656,8 @@
       <c r="E12" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>143</v>
+      <c r="F12" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2493,7 +2678,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" ht="17">
       <c r="A13" s="11">
         <v>6</v>
       </c>
@@ -2511,8 +2696,8 @@
       <c r="E13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>143</v>
+      <c r="F13" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2533,7 +2718,7 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" ht="17">
       <c r="A14" s="11">
         <v>6</v>
       </c>
@@ -2551,8 +2736,8 @@
       <c r="E14" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>143</v>
+      <c r="F14" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2573,7 +2758,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" ht="17">
       <c r="A15" s="11">
         <v>7</v>
       </c>
@@ -2588,8 +2773,8 @@
       <c r="E15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>143</v>
+      <c r="F15" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -2610,7 +2795,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" ht="34">
       <c r="A16" s="11">
         <v>7</v>
       </c>
@@ -2627,8 +2812,8 @@
       <c r="E16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>143</v>
+      <c r="F16" s="35" t="s">
+        <v>173</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -2649,7 +2834,7 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" ht="17">
       <c r="A17" s="11">
         <v>8</v>
       </c>
@@ -2667,8 +2852,8 @@
       <c r="E17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>143</v>
+      <c r="F17" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -2707,9 +2892,7 @@
       <c r="E18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="F18" s="35"/>
       <c r="G18" s="5">
         <v>0</v>
       </c>
@@ -2747,9 +2930,7 @@
       <c r="E19" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="F19" s="22"/>
       <c r="G19" s="5">
         <v>0</v>
       </c>
@@ -2769,7 +2950,7 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" ht="34">
       <c r="A20" s="11">
         <v>9</v>
       </c>
@@ -2787,8 +2968,8 @@
       <c r="E20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>143</v>
+      <c r="F20" s="35" t="s">
+        <v>175</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -2809,7 +2990,7 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" ht="34">
       <c r="A21" s="11">
         <v>10</v>
       </c>
@@ -2827,8 +3008,8 @@
       <c r="E21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>143</v>
+      <c r="F21" s="35" t="s">
+        <v>175</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -2849,7 +3030,7 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" ht="34">
       <c r="A22" s="11">
         <v>10</v>
       </c>
@@ -2867,8 +3048,8 @@
       <c r="E22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>143</v>
+      <c r="F22" s="35" t="s">
+        <v>176</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
@@ -2889,7 +3070,7 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" ht="17">
       <c r="A23" s="11">
         <v>11</v>
       </c>
@@ -2907,8 +3088,8 @@
       <c r="E23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>143</v>
+      <c r="F23" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -2929,7 +3110,7 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" ht="17">
       <c r="A24" s="11">
         <v>11</v>
       </c>
@@ -2947,8 +3128,8 @@
       <c r="E24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>143</v>
+      <c r="F24" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -2969,7 +3150,7 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" ht="17">
       <c r="A25" s="11">
         <v>12</v>
       </c>
@@ -2987,8 +3168,8 @@
       <c r="E25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>143</v>
+      <c r="F25" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
@@ -3009,7 +3190,7 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" ht="51">
       <c r="A26" s="11">
         <v>12</v>
       </c>
@@ -3027,8 +3208,8 @@
       <c r="E26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>143</v>
+      <c r="F26" s="35" t="s">
+        <v>178</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
@@ -3049,7 +3230,7 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" ht="17">
       <c r="A27" s="11">
         <v>13</v>
       </c>
@@ -3064,8 +3245,8 @@
       <c r="E27" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>143</v>
+      <c r="F27" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
@@ -3086,7 +3267,7 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" ht="17">
       <c r="A28" s="11">
         <v>13</v>
       </c>
@@ -3103,8 +3284,8 @@
       <c r="E28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>143</v>
+      <c r="F28" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
@@ -3125,7 +3306,7 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" ht="17">
       <c r="A29" s="11">
         <v>14</v>
       </c>
@@ -3142,8 +3323,8 @@
       <c r="E29" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>143</v>
+      <c r="F29" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
@@ -3164,7 +3345,7 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" ht="17">
       <c r="A30" s="11">
         <v>14</v>
       </c>
@@ -3182,8 +3363,8 @@
       <c r="E30" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>143</v>
+      <c r="F30" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
@@ -3204,7 +3385,7 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" ht="17">
       <c r="A31" s="11">
         <v>15</v>
       </c>
@@ -3222,8 +3403,8 @@
       <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>143</v>
+      <c r="F31" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
@@ -3262,9 +3443,7 @@
       <c r="E32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="F32" s="21"/>
       <c r="G32" s="5">
         <v>0</v>
       </c>
@@ -3296,9 +3475,7 @@
       <c r="E33" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="F33" s="21"/>
       <c r="G33" s="5">
         <v>0</v>
       </c>
@@ -7775,7 +7952,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7806,10 +7983,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>150</v>
@@ -7820,10 +7997,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -7834,115 +8011,278 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="15"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="25"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="25"/>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="B6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="14">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="14">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17">
+      <c r="A12" s="14">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17">
+      <c r="A14" s="14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17">
+      <c r="A15" s="14">
+        <v>5</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17">
+      <c r="A16" s="14">
+        <v>5</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17">
+      <c r="A17" s="14">
+        <v>5</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17">
+      <c r="A18" s="14">
+        <v>8</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" ht="17">
+      <c r="A19" s="14">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17">
+      <c r="A20" s="14">
+        <v>10</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="14">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="14">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="14">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="14">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="14">
+        <v>17</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="14">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="14">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="14">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="B29" s="5"/>
       <c r="C29" s="25"/>
     </row>
@@ -7957,18 +8297,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="46.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
@@ -7992,8 +8333,8 @@
       <c r="B2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>157</v>
+      <c r="C2" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
@@ -8006,8 +8347,8 @@
       <c r="B3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>158</v>
+      <c r="C3" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>96</v>
@@ -8018,42 +8359,112 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>160</v>
+        <v>227</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="14">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="15"/>
+    <row r="11" spans="1:4" ht="17">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="11"/>
@@ -8072,96 +8483,96 @@
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="11"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="15"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="11"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="11"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="15"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="5"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="5"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="5"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="5"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="5"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="5"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="5"/>
-      <c r="C38" s="15"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="5"/>
@@ -8197,99 +8608,35 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="26"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="26"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="5"/>
-      <c r="C63" s="26"/>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="5"/>
-      <c r="C64" s="26"/>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="5"/>
-      <c r="C65" s="26"/>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="5"/>
-      <c r="C66" s="26"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="5"/>
-      <c r="C67" s="26"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="5"/>
-      <c r="C68" s="26"/>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="5"/>
-      <c r="C69" s="26"/>
+      <c r="C53" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{993D46F8-B40F-4643-9B3E-19DE70FAA2A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8356,7 +8703,7 @@
         <v>151</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D3" s="27">
         <v>44084</v>
@@ -11174,10 +11521,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="34">
+      <c r="A5" s="33">
         <v>43709</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="34"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -11220,10 +11567,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>43739</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -11274,10 +11621,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>43770</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -11344,10 +11691,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>43800</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="34"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -11430,10 +11777,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>43831</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -11484,10 +11831,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="34">
+      <c r="A45" s="33">
         <v>43862</v>
       </c>
-      <c r="B45" s="35"/>
+      <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -11514,10 +11861,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="34">
+      <c r="A49" s="33">
         <v>43891</v>
       </c>
-      <c r="B49" s="35"/>
+      <c r="B49" s="34"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -11592,10 +11939,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="34">
+      <c r="A59" s="33">
         <v>43922</v>
       </c>
-      <c r="B59" s="35"/>
+      <c r="B59" s="34"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -11638,10 +11985,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="34">
+      <c r="A65" s="33">
         <v>43952</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="34"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9EFCE0-0754-EB44-862D-C055725D7564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6246A5-45D8-1F4B-91E4-656D59958E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="231">
   <si>
     <t>Day</t>
   </si>
@@ -470,21 +470,12 @@
     <t>Content</t>
   </si>
   <si>
-    <t>In this starter assignment, we are just going to try and test that everyone can go through and utilize some of the basic technologies we will use in the class, including Excel Solver.</t>
-  </si>
-  <si>
-    <t>files/assignments/01starter.xlsx</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>File</t>
   </si>
   <si>
-    <t xml:space="preserve">This will test your ability to use Jupyter notebooks. </t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -500,9 +491,6 @@
     <t>https://www.kaggle.com/</t>
   </si>
   <si>
-    <t>assignments/02starter</t>
-  </si>
-  <si>
     <t>https://forms.gle/6T7UdT7dZWboufeS7</t>
   </si>
   <si>
@@ -726,6 +714,12 @@
   </si>
   <si>
     <t>Pivot Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this starter assignment, we will get some basic understanding of working with files and packages. </t>
+  </si>
+  <si>
+    <t>assignments/01starter</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2266,7 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2310,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2378,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -2408,7 +2402,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -2452,7 +2446,7 @@
         <v>142</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -2477,7 +2471,7 @@
         <v>80</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -2502,7 +2496,7 @@
         <v>81</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -2527,7 +2521,7 @@
         <v>82</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -2552,7 +2546,7 @@
         <v>83</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -2577,7 +2571,7 @@
         <v>84</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2617,7 +2611,7 @@
         <v>84</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -2657,7 +2651,7 @@
         <v>109</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2697,7 +2691,7 @@
         <v>101</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2737,7 +2731,7 @@
         <v>101</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2774,7 +2768,7 @@
         <v>110</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -2813,7 +2807,7 @@
         <v>102</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -2853,7 +2847,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -2969,7 +2963,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -3009,7 +3003,7 @@
         <v>85</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -3049,7 +3043,7 @@
         <v>113</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
@@ -3089,7 +3083,7 @@
         <v>113</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -3129,7 +3123,7 @@
         <v>86</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -3169,7 +3163,7 @@
         <v>86</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
@@ -3209,7 +3203,7 @@
         <v>88</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
@@ -3246,7 +3240,7 @@
         <v>114</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
@@ -3285,7 +3279,7 @@
         <v>87</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
@@ -3324,7 +3318,7 @@
         <v>103</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
@@ -3364,7 +3358,7 @@
         <v>103</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
@@ -3404,7 +3398,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
@@ -7972,10 +7966,10 @@
         <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7983,13 +7977,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7997,10 +7991,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -8011,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8025,10 +8019,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
@@ -8036,10 +8030,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
@@ -8047,10 +8041,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17">
@@ -8058,10 +8052,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17">
@@ -8069,10 +8063,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17">
@@ -8080,10 +8074,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17">
@@ -8091,10 +8085,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17">
@@ -8102,10 +8096,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17">
@@ -8113,10 +8107,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17">
@@ -8124,10 +8118,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
@@ -8135,10 +8129,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17">
@@ -8146,10 +8140,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17">
@@ -8157,10 +8151,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17">
@@ -8168,7 +8162,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C18" s="25"/>
     </row>
@@ -8177,10 +8171,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17">
@@ -8188,10 +8182,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8199,10 +8193,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8210,10 +8204,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8221,10 +8215,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8232,10 +8226,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8243,10 +8237,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8254,10 +8248,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8265,10 +8259,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8276,10 +8270,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8299,7 +8293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD28"/>
     </sheetView>
@@ -8320,10 +8314,10 @@
         <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
@@ -8334,7 +8328,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
@@ -8348,7 +8342,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>96</v>
@@ -8359,10 +8353,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>96</v>
@@ -8373,10 +8367,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>96</v>
@@ -8387,10 +8381,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>96</v>
@@ -8401,10 +8395,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>96</v>
@@ -8415,10 +8409,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>96</v>
@@ -8429,10 +8423,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>96</v>
@@ -8443,10 +8437,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -8457,10 +8451,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>96</v>
@@ -8647,8 +8641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8669,13 +8663,13 @@
         <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
@@ -8683,34 +8677,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="D2" s="28">
         <v>44081</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="27">
-        <v>44084</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>96</v>
       </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" s="23"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6246A5-45D8-1F4B-91E4-656D59958E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD1C49F-5CC2-E74E-84C1-7B3BDB1191EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -22,12 +22,22 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="168">
   <si>
     <t>Day</t>
   </si>
@@ -470,27 +480,51 @@
     <t>Content</t>
   </si>
   <si>
+    <t>In this starter assignment, we are just going to try and test that everyone can go through and utilize some of the basic technologies we will use in the class, including Excel Solver.</t>
+  </si>
+  <si>
+    <t>files/assignments/01starter.xlsx</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
     <t>File</t>
   </si>
   <si>
+    <t xml:space="preserve">This will test your ability to use Jupyter notebooks. </t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
+    <t xml:space="preserve">In this class we will simply be providing a high level overview of the class.  We will introduce the basics of the concepts and the approaches used. </t>
+  </si>
+  <si>
     <t>Schedule Tab</t>
   </si>
   <si>
     <t>Whether or not session/assignment info should be published (0/1).</t>
   </si>
   <si>
+    <t>More detail on specific approches.</t>
+  </si>
+  <si>
+    <t>notebooks/python-overview</t>
+  </si>
+  <si>
+    <t>notebooks/datastructures</t>
+  </si>
+  <si>
     <t>Kaggle</t>
   </si>
   <si>
     <t>https://www.kaggle.com/</t>
   </si>
   <si>
+    <t>assignments/02starter</t>
+  </si>
+  <si>
     <t>https://forms.gle/6T7UdT7dZWboufeS7</t>
   </si>
   <si>
@@ -507,219 +541,6 @@
   </si>
   <si>
     <t>https://eurl.io/#KijTiY1Sa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this class we motivate the overall field of data science, machine learning, and the emerging area of AI.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This class introduces some basic computational background the Python computational environment, packages, colab, linux command line, git.  Introduction to coding includes basic data structures (sets, dictionaries, lists) along with packages specific for analytics (Numpy and Pandas). </t>
-  </si>
-  <si>
-    <t>Lab/Homework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. </t>
-  </si>
-  <si>
-    <t>Lab/homework</t>
-  </si>
-  <si>
-    <t>Introduction to visualiation,  APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We examine the basics of classess of supervised, unsupervised, reenforcement learning. Also examine overfitting and how cross validation is used for overfitting and how hypterparameters are used to optimize models. </t>
-  </si>
-  <si>
-    <t>The goal of this class is to get you familiar to using R. While we will be Jupyter notebooks, we will also examine using RStudio. Now that you have already started with Python, many of the concepts will map.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regression models similarly a a major type of machine learning application.  In this </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsupervised models are frequently used to subset data into subpoluations or to generate features.  </t>
-  </si>
-  <si>
-    <t>Midterm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is no class, but will be available for meeting about project during class time and office hours. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. </t>
-  </si>
-  <si>
-    <t>The goal of this class is to investigate basic concepts surrounding text mining.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image data is different and deep learning has transformed the ability of machines to process image data. In this lecture we will get an overview of image processing and deep learning techniques. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increasingly there are tools to automate the process of selecting models. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal is to get you familiar with Spark and the general big data infrastructure. </t>
-  </si>
-  <si>
-    <t>Chapter 1: The Machine Learning Landscape</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/</t>
-  </si>
-  <si>
-    <t>The Unix Shell</t>
-  </si>
-  <si>
-    <t>http://swcarpentry.github.io/shell-novice/</t>
-  </si>
-  <si>
-    <t>Command Line Cheat Sheet</t>
-  </si>
-  <si>
-    <t>https://www.git-tower.com/blog/command-line-cheat-sheet/</t>
-  </si>
-  <si>
-    <t>The Hitchhikers Guide to Python - Code Style</t>
-  </si>
-  <si>
-    <t>https://docs.python-guide.org/writing/style/</t>
-  </si>
-  <si>
-    <t>Getting Started with Python Environments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 </t>
-  </si>
-  <si>
-    <t>Chapter 2: End to End Machine Learning Project</t>
-  </si>
-  <si>
-    <t>What is an API?</t>
-  </si>
-  <si>
-    <t>https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/</t>
-  </si>
-  <si>
-    <t>What is an API Economy?</t>
-  </si>
-  <si>
-    <t>https://www.mulesoft.com/resources/api/what-is-an-api-economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revew the documentation of Twitter API for the end point get User Timelines. </t>
-  </si>
-  <si>
-    <t>https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html</t>
-  </si>
-  <si>
-    <t>Building a web scraper</t>
-  </si>
-  <si>
-    <t>https://www.dataquest.io/blog/web-scraping-tutorial-python/</t>
-  </si>
-  <si>
-    <t>10 Best Visualization Examples</t>
-  </si>
-  <si>
-    <t>https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples</t>
-  </si>
-  <si>
-    <t>Regex Cheatsheet</t>
-  </si>
-  <si>
-    <t>https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285</t>
-  </si>
-  <si>
-    <t>Chapter 3: Classifiication</t>
-  </si>
-  <si>
-    <t>Under and Overfitting in Machine Learning</t>
-  </si>
-  <si>
-    <t>https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76</t>
-  </si>
-  <si>
-    <t>R for Data Science (Skim through book and understand it is available as a reference if needed.)</t>
-  </si>
-  <si>
-    <t>https://r4ds.had.co.nz</t>
-  </si>
-  <si>
-    <t>RStudio Cloud</t>
-  </si>
-  <si>
-    <t>https://rstudio.cloud/project/232375</t>
-  </si>
-  <si>
-    <t>Chapter 4: Training Models</t>
-  </si>
-  <si>
-    <t>Chapter 8: Dimensionality Reduction; Chapter 9 Unsupervised Machine Learning</t>
-  </si>
-  <si>
-    <t>Chapter 6: Decision Trees</t>
-  </si>
-  <si>
-    <t>Chapter 7: Ensembe Learning and Random Forrests</t>
-  </si>
-  <si>
-    <t>Chapter 10: Introduction to Artifical Neural Networks with Keras</t>
-  </si>
-  <si>
-    <t>Chapter 11: Training Deep Neural Networks</t>
-  </si>
-  <si>
-    <t>Chapter 12: Custom Models and Training with Tensorflow</t>
-  </si>
-  <si>
-    <t>notebooks/01-intro-python/01-python-overview</t>
-  </si>
-  <si>
-    <t>notebooks/01-intro-python/02-datastructures</t>
-  </si>
-  <si>
-    <t>notebooks/01-intro-python/03-numpy</t>
-  </si>
-  <si>
-    <t>notebooks/01-intro-python/04-pandas</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/02-functions</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/03-null-values</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/04-groupby</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/04-pivottable</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/05-kaggle-baseline</t>
-  </si>
-  <si>
-    <t>Numpy</t>
-  </si>
-  <si>
-    <t>Pandas</t>
-  </si>
-  <si>
-    <t>Fuctions</t>
-  </si>
-  <si>
-    <t>Null Values</t>
-  </si>
-  <si>
-    <t>Groupby</t>
-  </si>
-  <si>
-    <t>Pivot Tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this starter assignment, we will get some basic understanding of working with files and packages. </t>
-  </si>
-  <si>
-    <t>assignments/01starter</t>
   </si>
 </sst>
 </file>
@@ -940,13 +761,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2266,7 +2087,7 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2304,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2142,7 @@
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -2360,7 +2181,7 @@
       </c>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:22" ht="34">
+    <row r="2" spans="1:22">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2377,8 +2198,8 @@
       <c r="E2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>160</v>
+      <c r="F2" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -2401,8 +2222,8 @@
       <c r="E3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>161</v>
+      <c r="F3" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -2423,12 +2244,12 @@
       <c r="E4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="11"/>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2445,14 +2266,14 @@
       <c r="E5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>162</v>
+      <c r="F5" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="68">
+    <row r="6" spans="1:22">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -2470,14 +2291,14 @@
       <c r="E6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>163</v>
+      <c r="F6" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2495,14 +2316,14 @@
       <c r="E7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>164</v>
+      <c r="F7" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="68">
+    <row r="8" spans="1:22">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -2520,14 +2341,14 @@
       <c r="E8" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>165</v>
+      <c r="F8" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -2545,14 +2366,14 @@
       <c r="E9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>164</v>
+      <c r="F9" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="51">
+    <row r="10" spans="1:22">
       <c r="A10" s="11">
         <v>4</v>
       </c>
@@ -2570,8 +2391,8 @@
       <c r="E10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>166</v>
+      <c r="F10" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2592,7 +2413,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22">
       <c r="A11" s="11">
         <v>5</v>
       </c>
@@ -2610,8 +2431,8 @@
       <c r="E11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>164</v>
+      <c r="F11" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -2632,7 +2453,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" ht="51">
+    <row r="12" spans="1:22">
       <c r="A12" s="11">
         <v>5</v>
       </c>
@@ -2650,8 +2471,8 @@
       <c r="E12" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>167</v>
+      <c r="F12" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2672,7 +2493,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:22" ht="17">
+    <row r="13" spans="1:22">
       <c r="A13" s="11">
         <v>6</v>
       </c>
@@ -2690,8 +2511,8 @@
       <c r="E13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>164</v>
+      <c r="F13" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2712,7 +2533,7 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
     </row>
-    <row r="14" spans="1:22" ht="17">
+    <row r="14" spans="1:22">
       <c r="A14" s="11">
         <v>6</v>
       </c>
@@ -2730,8 +2551,8 @@
       <c r="E14" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>168</v>
+      <c r="F14" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2752,7 +2573,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
     </row>
-    <row r="15" spans="1:22" ht="17">
+    <row r="15" spans="1:22">
       <c r="A15" s="11">
         <v>7</v>
       </c>
@@ -2767,8 +2588,8 @@
       <c r="E15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>164</v>
+      <c r="F15" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -2789,7 +2610,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
     </row>
-    <row r="16" spans="1:22" ht="34">
+    <row r="16" spans="1:22">
       <c r="A16" s="11">
         <v>7</v>
       </c>
@@ -2806,8 +2627,8 @@
       <c r="E16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>169</v>
+      <c r="F16" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -2828,7 +2649,7 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="1:22" ht="17">
+    <row r="17" spans="1:22">
       <c r="A17" s="11">
         <v>8</v>
       </c>
@@ -2846,8 +2667,8 @@
       <c r="E17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>170</v>
+      <c r="F17" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -2886,7 +2707,9 @@
       <c r="E18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="G18" s="5">
         <v>0</v>
       </c>
@@ -2924,7 +2747,9 @@
       <c r="E19" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="G19" s="5">
         <v>0</v>
       </c>
@@ -2944,7 +2769,7 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="34">
+    <row r="20" spans="1:22">
       <c r="A20" s="11">
         <v>9</v>
       </c>
@@ -2962,8 +2787,8 @@
       <c r="E20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>171</v>
+      <c r="F20" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -2984,7 +2809,7 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
     </row>
-    <row r="21" spans="1:22" ht="34">
+    <row r="21" spans="1:22">
       <c r="A21" s="11">
         <v>10</v>
       </c>
@@ -3002,8 +2827,8 @@
       <c r="E21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>171</v>
+      <c r="F21" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -3024,7 +2849,7 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="34">
+    <row r="22" spans="1:22">
       <c r="A22" s="11">
         <v>10</v>
       </c>
@@ -3042,8 +2867,8 @@
       <c r="E22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>172</v>
+      <c r="F22" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
@@ -3064,7 +2889,7 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
     </row>
-    <row r="23" spans="1:22" ht="17">
+    <row r="23" spans="1:22">
       <c r="A23" s="11">
         <v>11</v>
       </c>
@@ -3082,8 +2907,8 @@
       <c r="E23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>162</v>
+      <c r="F23" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -3104,7 +2929,7 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
     </row>
-    <row r="24" spans="1:22" ht="17">
+    <row r="24" spans="1:22">
       <c r="A24" s="11">
         <v>11</v>
       </c>
@@ -3122,8 +2947,8 @@
       <c r="E24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>173</v>
+      <c r="F24" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -3144,7 +2969,7 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
     </row>
-    <row r="25" spans="1:22" ht="17">
+    <row r="25" spans="1:22">
       <c r="A25" s="11">
         <v>12</v>
       </c>
@@ -3162,8 +2987,8 @@
       <c r="E25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="35" t="s">
-        <v>162</v>
+      <c r="F25" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
@@ -3184,7 +3009,7 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
     </row>
-    <row r="26" spans="1:22" ht="51">
+    <row r="26" spans="1:22">
       <c r="A26" s="11">
         <v>12</v>
       </c>
@@ -3202,8 +3027,8 @@
       <c r="E26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="35" t="s">
-        <v>174</v>
+      <c r="F26" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
@@ -3224,7 +3049,7 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
     </row>
-    <row r="27" spans="1:22" ht="17">
+    <row r="27" spans="1:22">
       <c r="A27" s="11">
         <v>13</v>
       </c>
@@ -3239,8 +3064,8 @@
       <c r="E27" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>164</v>
+      <c r="F27" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
@@ -3261,7 +3086,7 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
     </row>
-    <row r="28" spans="1:22" ht="17">
+    <row r="28" spans="1:22">
       <c r="A28" s="11">
         <v>13</v>
       </c>
@@ -3278,8 +3103,8 @@
       <c r="E28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>175</v>
+      <c r="F28" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
@@ -3300,7 +3125,7 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
     </row>
-    <row r="29" spans="1:22" ht="17">
+    <row r="29" spans="1:22">
       <c r="A29" s="11">
         <v>14</v>
       </c>
@@ -3317,8 +3142,8 @@
       <c r="E29" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>164</v>
+      <c r="F29" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
@@ -3339,7 +3164,7 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
     </row>
-    <row r="30" spans="1:22" ht="17">
+    <row r="30" spans="1:22">
       <c r="A30" s="11">
         <v>14</v>
       </c>
@@ -3357,8 +3182,8 @@
       <c r="E30" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>164</v>
+      <c r="F30" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
@@ -3379,7 +3204,7 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
     </row>
-    <row r="31" spans="1:22" ht="17">
+    <row r="31" spans="1:22">
       <c r="A31" s="11">
         <v>15</v>
       </c>
@@ -3397,8 +3222,8 @@
       <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>176</v>
+      <c r="F31" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
@@ -3437,7 +3262,9 @@
       <c r="E32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="G32" s="5">
         <v>0</v>
       </c>
@@ -3469,7 +3296,9 @@
       <c r="E33" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="G33" s="5">
         <v>0</v>
       </c>
@@ -7943,10 +7772,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:C28"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7966,10 +7795,10 @@
         <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7977,13 +7806,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7991,10 +7820,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -8005,278 +7834,115 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17">
+    <row r="5" spans="1:4">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17">
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="14">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="14">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="14">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="14">
-        <v>3</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="14">
-        <v>4</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="14">
-        <v>5</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="14">
-        <v>5</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17">
-      <c r="A14" s="14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="14">
-        <v>5</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="14">
-        <v>5</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17">
-      <c r="A17" s="14">
-        <v>5</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17">
-      <c r="A18" s="14">
-        <v>8</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" spans="1:3" ht="17">
-      <c r="A19" s="14">
-        <v>8</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17">
-      <c r="A20" s="14">
-        <v>10</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="14">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="14">
-        <v>12</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="14">
-        <v>14</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="14">
-        <v>16</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="14">
-        <v>17</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="14">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="14">
-        <v>21</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="14">
-        <v>22</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" s="5"/>
       <c r="C29" s="25"/>
     </row>
@@ -8291,19 +7957,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD28"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="46.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
@@ -8314,10 +7979,10 @@
         <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
@@ -8327,8 +7992,8 @@
       <c r="B2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>214</v>
+      <c r="C2" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
@@ -8341,8 +8006,8 @@
       <c r="B3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>215</v>
+      <c r="C3" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>96</v>
@@ -8353,112 +8018,42 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>216</v>
+        <v>159</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="14">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="14">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="14">
-        <v>4</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="14">
-        <v>4</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="14">
-        <v>4</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>96</v>
-      </c>
+    <row r="5" spans="1:4">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="11"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="11"/>
@@ -8477,96 +8072,96 @@
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="5"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="15"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="5"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="5"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="5"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="5"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="5"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="15"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="15"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="15"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="5"/>
@@ -8602,35 +8197,99 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="5"/>
-      <c r="C47" s="26"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="5"/>
-      <c r="C48" s="26"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="5"/>
-      <c r="C49" s="26"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="5"/>
-      <c r="C50" s="26"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="5"/>
-      <c r="C51" s="26"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="5"/>
-      <c r="C52" s="26"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="5"/>
-      <c r="C53" s="26"/>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="5"/>
+      <c r="C63" s="26"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="5"/>
+      <c r="C64" s="26"/>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="5"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="5"/>
+      <c r="C66" s="26"/>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="5"/>
+      <c r="C67" s="26"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="5"/>
+      <c r="C68" s="26"/>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="5"/>
+      <c r="C69" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{993D46F8-B40F-4643-9B3E-19DE70FAA2A4}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8641,8 +8300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8663,13 +8322,13 @@
         <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
@@ -8677,22 +8336,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="D2" s="28">
         <v>44081</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="27">
+        <v>44084</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" s="23"/>
@@ -11503,10 +11174,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="33">
+      <c r="A5" s="34">
         <v>43709</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -11549,10 +11220,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="33">
+      <c r="A11" s="34">
         <v>43739</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -11603,10 +11274,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="33">
+      <c r="A18" s="34">
         <v>43770</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -11673,10 +11344,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="33">
+      <c r="A27" s="34">
         <v>43800</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="35"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -11759,10 +11430,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="33">
+      <c r="A38" s="34">
         <v>43831</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -11813,10 +11484,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="33">
+      <c r="A45" s="34">
         <v>43862</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="35"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -11843,10 +11514,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="33">
+      <c r="A49" s="34">
         <v>43891</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="35"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -11921,10 +11592,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="33">
+      <c r="A59" s="34">
         <v>43922</v>
       </c>
-      <c r="B59" s="34"/>
+      <c r="B59" s="35"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -11967,10 +11638,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="33">
+      <c r="A65" s="34">
         <v>43952</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="35"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD1C49F-5CC2-E74E-84C1-7B3BDB1191EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C111349-DD85-A641-A573-9E5235176AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="166">
   <si>
     <t>Day</t>
   </si>
@@ -480,21 +480,12 @@
     <t>Content</t>
   </si>
   <si>
-    <t>In this starter assignment, we are just going to try and test that everyone can go through and utilize some of the basic technologies we will use in the class, including Excel Solver.</t>
-  </si>
-  <si>
-    <t>files/assignments/01starter.xlsx</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>File</t>
   </si>
   <si>
-    <t xml:space="preserve">This will test your ability to use Jupyter notebooks. </t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -522,9 +513,6 @@
     <t>https://www.kaggle.com/</t>
   </si>
   <si>
-    <t>assignments/02starter</t>
-  </si>
-  <si>
     <t>https://forms.gle/6T7UdT7dZWboufeS7</t>
   </si>
   <si>
@@ -541,6 +529,12 @@
   </si>
   <si>
     <t>https://eurl.io/#KijTiY1Sa</t>
+  </si>
+  <si>
+    <t>assignments/assignment1/01starter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages. </t>
   </si>
 </sst>
 </file>
@@ -755,9 +749,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -768,6 +759,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2087,7 +2081,7 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2125,7 +2119,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2193,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -2223,7 +2217,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -7772,7 +7766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
@@ -7795,10 +7789,10 @@
         <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7806,13 +7800,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7820,10 +7814,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -7834,10 +7828,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -7979,10 +7973,10 @@
         <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
@@ -7993,7 +7987,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
@@ -8007,7 +8001,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>96</v>
@@ -8018,10 +8012,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8298,16 +8292,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
-  <dimension ref="A1:E922"/>
+  <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="31" customWidth="1"/>
     <col min="3" max="3" width="39.1640625" style="17" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" style="11" customWidth="1"/>
@@ -8322,48 +8316,34 @@
         <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>147</v>
+      <c r="B2" s="35" t="s">
+        <v>165</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D2" s="28">
         <v>44081</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="27">
-        <v>44084</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>96</v>
       </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" s="23"/>
@@ -11118,9 +11098,6 @@
     </row>
     <row r="921" spans="3:3">
       <c r="C921" s="23"/>
-    </row>
-    <row r="922" spans="3:3">
-      <c r="C922" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11174,10 +11151,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="34">
+      <c r="A5" s="33">
         <v>43709</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="34"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -11220,10 +11197,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>43739</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -11274,10 +11251,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>43770</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -11344,10 +11321,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>43800</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="34"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -11430,10 +11407,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>43831</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -11484,10 +11461,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="34">
+      <c r="A45" s="33">
         <v>43862</v>
       </c>
-      <c r="B45" s="35"/>
+      <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -11514,10 +11491,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="34">
+      <c r="A49" s="33">
         <v>43891</v>
       </c>
-      <c r="B49" s="35"/>
+      <c r="B49" s="34"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -11592,10 +11569,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="34">
+      <c r="A59" s="33">
         <v>43922</v>
       </c>
-      <c r="B59" s="35"/>
+      <c r="B59" s="34"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -11638,10 +11615,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="34">
+      <c r="A65" s="33">
         <v>43952</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="34"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C111349-DD85-A641-A573-9E5235176AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C8308A-904D-D442-BB5E-250CD07B37F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="213">
   <si>
     <t>Day</t>
   </si>
@@ -483,9 +483,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>File</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -501,15 +498,6 @@
     <t>More detail on specific approches.</t>
   </si>
   <si>
-    <t>notebooks/python-overview</t>
-  </si>
-  <si>
-    <t>notebooks/datastructures</t>
-  </si>
-  <si>
-    <t>Kaggle</t>
-  </si>
-  <si>
     <t>https://www.kaggle.com/</t>
   </si>
   <si>
@@ -525,9 +513,6 @@
     <t xml:space="preserve">Join this Webex Teams space. </t>
   </si>
   <si>
-    <t>files/syllabus.pdf</t>
-  </si>
-  <si>
     <t>https://eurl.io/#KijTiY1Sa</t>
   </si>
   <si>
@@ -535,6 +520,162 @@
   </si>
   <si>
     <t xml:space="preserve">This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages. </t>
+  </si>
+  <si>
+    <t>Chapter 1: The Machine Learning Landscape</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/</t>
+  </si>
+  <si>
+    <t>The Hitchhikers Guide to Python - Code Style</t>
+  </si>
+  <si>
+    <t>https://docs.python-guide.org/writing/style/</t>
+  </si>
+  <si>
+    <t>Getting Started with Python Environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 </t>
+  </si>
+  <si>
+    <t>notebooks/01-intro-python/01-python-overview</t>
+  </si>
+  <si>
+    <t>notebooks/01-intro-python/02-datastructures</t>
+  </si>
+  <si>
+    <t>notebooks/01-intro-python/03-numpy</t>
+  </si>
+  <si>
+    <t>Conditional-Loops</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Null Values</t>
+  </si>
+  <si>
+    <t>Groupby and Pivot Tables</t>
+  </si>
+  <si>
+    <t>Kaggle Baseline</t>
+  </si>
+  <si>
+    <t>Numpy</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>notebooks/01-intro-python/04-pandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaggle </t>
+  </si>
+  <si>
+    <t>Chapter 2: End to End Machine Learning Project</t>
+  </si>
+  <si>
+    <t>What is an API?</t>
+  </si>
+  <si>
+    <t>https://www.freecodecamp.org/news/what-is-an-api-in-english-please-b880a3214a82/</t>
+  </si>
+  <si>
+    <t>What is an API Economy?</t>
+  </si>
+  <si>
+    <t>https://www.mulesoft.com/resources/api/what-is-an-api-economy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revew the documentation of Twitter API for the end point get User Timelines. </t>
+  </si>
+  <si>
+    <t>https://developer.twitter.com/en/docs/tweets/timelines/api-reference/get-statuses-user_timeline.html</t>
+  </si>
+  <si>
+    <t>Building a web scraper</t>
+  </si>
+  <si>
+    <t>https://www.dataquest.io/blog/web-scraping-tutorial-python/</t>
+  </si>
+  <si>
+    <t>10 Best Visualization Examples</t>
+  </si>
+  <si>
+    <t>https://www.tableau.com/learn/articles/best-beautiful-data-visualization-examples</t>
+  </si>
+  <si>
+    <t>Regex Cheatsheet</t>
+  </si>
+  <si>
+    <t>https://medium.com/factory-mind/regex-tutorial-a-simple-cheatsheet-by-examples-649dc1c3f285</t>
+  </si>
+  <si>
+    <t>Chapter 3: Classifiication</t>
+  </si>
+  <si>
+    <t>Under and Overfitting in Machine Learning</t>
+  </si>
+  <si>
+    <t>https://medium.com/greyatom/what-is-underfitting-and-overfitting-in-machine-learning-and-how-to-deal-with-it-6803a989c76</t>
+  </si>
+  <si>
+    <t>R for Data Science (Skim through book and understand it is available as a reference if needed.)</t>
+  </si>
+  <si>
+    <t>https://r4ds.had.co.nz</t>
+  </si>
+  <si>
+    <t>RStudio Cloud</t>
+  </si>
+  <si>
+    <t>https://rstudio.cloud/project/232375</t>
+  </si>
+  <si>
+    <t>Chapter 4: Training Models</t>
+  </si>
+  <si>
+    <t>Chapter 8: Dimensionality Reduction; Chapter 9 Unsupervised Machine Learning</t>
+  </si>
+  <si>
+    <t>Chapter 6: Decision Trees</t>
+  </si>
+  <si>
+    <t>Chapter 7: Ensembe Learning and Random Forrests</t>
+  </si>
+  <si>
+    <t>Chapter 10: Introduction to Artifical Neural Networks with Keras</t>
+  </si>
+  <si>
+    <t>Chapter 11: Training Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>Chapter 12: Custom Models and Training with Tensorflow</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/01-intro-python-conditionals-loops</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/02-intro-python-functions</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/03-intro-python-null-values</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/04-intro-python-groupby</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/05-intro-kaggle-baseline</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
   </si>
 </sst>
 </file>
@@ -691,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,9 +893,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -762,6 +900,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2081,7 +2223,7 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2119,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +2335,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -2217,7 +2359,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -7769,7 +7911,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7789,7 +7931,7 @@
         <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>147</v>
@@ -7800,24 +7942,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -7828,115 +7968,331 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="14">
+      <c r="B5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="15"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="25"/>
-    </row>
-    <row r="27" spans="2:3">
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="35">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="35">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="35">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="35">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="35">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17">
+      <c r="A11" s="35">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17">
+      <c r="A12" s="35">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17">
+      <c r="A13" s="35">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17">
+      <c r="A14" s="35">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17">
+      <c r="A15" s="35">
+        <v>5</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17">
+      <c r="A16" s="35">
+        <v>8</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17">
+      <c r="A17" s="35">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17">
+      <c r="A18" s="35">
+        <v>10</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="35">
+        <v>10</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="35">
+        <v>12</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="35">
+        <v>14</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="35">
+        <v>16</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="35">
+        <v>17</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="35">
+        <v>22</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="35">
+        <v>21</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="35">
+        <v>22</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:4">
       <c r="B28" s="5"/>
       <c r="C28" s="25"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:4">
       <c r="B29" s="5"/>
       <c r="C29" s="25"/>
     </row>
@@ -7953,9 +8309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7973,89 +8329,165 @@
         <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4" ht="34">
       <c r="A2" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4">
       <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>155</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4" ht="34">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>157</v>
+        <v>98</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
+    <row r="8" spans="1:4" ht="34">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34">
+      <c r="A10" s="14">
+        <v>4</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="11"/>
@@ -8283,10 +8715,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8294,8 +8727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8316,7 +8749,7 @@
         <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>105</v>
@@ -8329,14 +8762,14 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>165</v>
+      <c r="B2" s="34" t="s">
+        <v>160</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D2" s="28">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>96</v>
@@ -11151,10 +11584,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>43709</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="33"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -11197,10 +11630,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>43739</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -11251,10 +11684,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>43770</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="33"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -11321,10 +11754,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="33">
+      <c r="A27" s="32">
         <v>43800</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -11407,10 +11840,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="33">
+      <c r="A38" s="32">
         <v>43831</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="33"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -11461,10 +11894,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="33">
+      <c r="A45" s="32">
         <v>43862</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="33"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -11491,10 +11924,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="33">
+      <c r="A49" s="32">
         <v>43891</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="33"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -11569,10 +12002,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="33">
+      <c r="A59" s="32">
         <v>43922</v>
       </c>
-      <c r="B59" s="34"/>
+      <c r="B59" s="33"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -11615,10 +12048,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="33">
+      <c r="A65" s="32">
         <v>43952</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="33"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C8308A-904D-D442-BB5E-250CD07B37F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9789F5-E68D-634E-B18E-B6EEA5C8A2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="215">
   <si>
     <t>Day</t>
   </si>
@@ -676,6 +676,12 @@
   </si>
   <si>
     <t>Assignment 1</t>
+  </si>
+  <si>
+    <t>Presentation 1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_5TGwja9jfGIi5FXMpLL_j5gkVuYC7U5</t>
   </si>
 </sst>
 </file>
@@ -8311,7 +8317,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8363,18 +8369,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34">
+    <row r="4" spans="1:4">
       <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34">
@@ -8382,10 +8388,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>96</v>
@@ -8396,41 +8402,41 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17">
+    <row r="7" spans="1:4" ht="34">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="14">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34">
-      <c r="A8" s="14">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34">
@@ -8438,10 +8444,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>96</v>
@@ -8452,10 +8458,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>96</v>
@@ -8466,10 +8472,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>96</v>
@@ -8480,12 +8486,26 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34">
+      <c r="A13" s="14">
+        <v>4</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>96</v>
       </c>
     </row>
@@ -8715,8 +8735,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9789F5-E68D-634E-B18E-B6EEA5C8A2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ECB225-0C7F-6745-ABE4-589766C4C68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="217">
   <si>
     <t>Day</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Null Values</t>
   </si>
   <si>
-    <t>Groupby and Pivot Tables</t>
-  </si>
-  <si>
     <t>Kaggle Baseline</t>
   </si>
   <si>
@@ -660,21 +657,6 @@
     <t>Google Drive</t>
   </si>
   <si>
-    <t>notebooks/02-intro-python/01-intro-python-conditionals-loops</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/02-intro-python-functions</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/03-intro-python-null-values</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/04-intro-python-groupby</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/05-intro-kaggle-baseline</t>
-  </si>
-  <si>
     <t>Assignment 1</t>
   </si>
   <si>
@@ -682,6 +664,30 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1_5TGwja9jfGIi5FXMpLL_j5gkVuYC7U5</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/01-conditionals-loops</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/02-functions</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/03-null-values</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/04-groupby</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/04-pivottable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groupby </t>
+  </si>
+  <si>
+    <t>Pivot Tables</t>
+  </si>
+  <si>
+    <t>notebooks/02-intro-python/05-kaggle-baseline</t>
   </si>
 </sst>
 </file>
@@ -7951,7 +7957,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -8044,7 +8050,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>162</v>
@@ -8058,10 +8064,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
@@ -8072,10 +8078,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -8086,10 +8092,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
@@ -8100,10 +8106,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -8114,10 +8120,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -8128,10 +8134,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -8142,7 +8148,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>162</v>
@@ -8156,10 +8162,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
@@ -8170,10 +8176,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>196</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
@@ -8184,10 +8190,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>198</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -8198,7 +8204,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>162</v>
@@ -8212,7 +8218,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>162</v>
@@ -8226,7 +8232,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>162</v>
@@ -8240,7 +8246,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>162</v>
@@ -8254,7 +8260,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>162</v>
@@ -8268,7 +8274,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>162</v>
@@ -8282,7 +8288,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>162</v>
@@ -8317,7 +8323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8360,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>159</v>
@@ -8374,10 +8380,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8402,7 +8408,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>169</v>
@@ -8416,10 +8422,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>96</v>
@@ -8430,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>153</v>
@@ -8447,7 +8453,7 @@
         <v>170</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>96</v>
@@ -8461,7 +8467,7 @@
         <v>171</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>96</v>
@@ -8475,7 +8481,7 @@
         <v>172</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>96</v>
@@ -8485,11 +8491,11 @@
       <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>173</v>
+      <c r="B12" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>96</v>
@@ -8499,19 +8505,29 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>174</v>
+      <c r="B13" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
+    <row r="14" spans="1:4" ht="34">
+      <c r="A14" s="14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="11"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ECB225-0C7F-6745-ABE4-589766C4C68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC16AC-A578-A041-B57F-A74979BEA911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="216">
   <si>
     <t>Day</t>
   </si>
@@ -655,9 +655,6 @@
   </si>
   <si>
     <t>Google Drive</t>
-  </si>
-  <si>
-    <t>Assignment 1</t>
   </si>
   <si>
     <t>Presentation 1</t>
@@ -8319,11 +8316,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8368,25 +8365,25 @@
       <c r="B3" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>159</v>
+      <c r="C3" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34">
@@ -8394,10 +8391,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>96</v>
@@ -8408,41 +8405,41 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="14">
-        <v>2</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34">
@@ -8450,7 +8447,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>209</v>
@@ -8464,7 +8461,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>210</v>
@@ -8477,8 +8474,8 @@
       <c r="A11" s="14">
         <v>4</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>172</v>
+      <c r="B11" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>211</v>
@@ -8505,29 +8502,19 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34">
-      <c r="A14" s="14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>96</v>
-      </c>
+    <row r="14" spans="1:4">
+      <c r="B14" s="11"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="11"/>
@@ -8594,7 +8581,7 @@
       <c r="C30" s="15"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="11"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="2:3">
@@ -8623,7 +8610,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="5"/>
-      <c r="C38" s="15"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="5"/>
@@ -8719,7 +8706,7 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="26"/>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="5"/>
@@ -8745,14 +8732,10 @@
       <c r="B68" s="5"/>
       <c r="C68" s="26"/>
     </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="5"/>
-      <c r="C69" s="26"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC16AC-A578-A041-B57F-A74979BEA911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7456147D-1F29-9D4F-A050-1E96E0555E7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -22,17 +22,7 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -902,10 +892,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -913,6 +899,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8001,7 +7991,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="35">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -8015,7 +8005,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="35">
+      <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -8029,7 +8019,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="35">
+      <c r="A8" s="33">
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -8043,7 +8033,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="35">
+      <c r="A9" s="33">
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -8057,7 +8047,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="35">
+      <c r="A10" s="33">
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -8071,7 +8061,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="35">
+      <c r="A11" s="33">
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -8085,7 +8075,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="35">
+      <c r="A12" s="33">
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -8099,7 +8089,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="35">
+      <c r="A13" s="33">
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -8113,7 +8103,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17">
-      <c r="A14" s="35">
+      <c r="A14" s="33">
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -8127,7 +8117,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="35">
+      <c r="A15" s="33">
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -8141,7 +8131,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="35">
+      <c r="A16" s="33">
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -8155,7 +8145,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17">
-      <c r="A17" s="35">
+      <c r="A17" s="33">
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -8169,7 +8159,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17">
-      <c r="A18" s="35">
+      <c r="A18" s="33">
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -8183,10 +8173,10 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="35">
+      <c r="A19" s="33">
         <v>10</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>196</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -8197,10 +8187,10 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="35">
+      <c r="A20" s="33">
         <v>12</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>198</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -8211,10 +8201,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="35">
+      <c r="A21" s="33">
         <v>14</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>199</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -8225,10 +8215,10 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="35">
+      <c r="A22" s="33">
         <v>16</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="34" t="s">
         <v>200</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -8239,10 +8229,10 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="35">
+      <c r="A23" s="33">
         <v>17</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>201</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -8253,10 +8243,10 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35">
+      <c r="A24" s="33">
         <v>22</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -8267,10 +8257,10 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35">
+      <c r="A25" s="33">
         <v>21</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="34" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -8281,10 +8271,10 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35">
+      <c r="A26" s="33">
         <v>22</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="34" t="s">
         <v>204</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -8318,7 +8308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
@@ -8474,7 +8464,7 @@
       <c r="A11" s="14">
         <v>4</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>213</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -8488,7 +8478,7 @@
       <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>214</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -8746,7 +8736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -8781,14 +8771,14 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>159</v>
       </c>
       <c r="D2" s="28">
-        <v>44082</v>
+        <v>44084</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>96</v>
@@ -11603,10 +11593,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="32">
+      <c r="A5" s="35">
         <v>43709</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -11649,10 +11639,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="32">
+      <c r="A11" s="35">
         <v>43739</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -11703,10 +11693,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="32">
+      <c r="A18" s="35">
         <v>43770</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="36"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -11773,10 +11763,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="32">
+      <c r="A27" s="35">
         <v>43800</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="36"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -11859,10 +11849,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="32">
+      <c r="A38" s="35">
         <v>43831</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="36"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -11913,10 +11903,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="35">
         <v>43862</v>
       </c>
-      <c r="B45" s="33"/>
+      <c r="B45" s="36"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -11943,10 +11933,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="32">
+      <c r="A49" s="35">
         <v>43891</v>
       </c>
-      <c r="B49" s="33"/>
+      <c r="B49" s="36"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -12021,10 +12011,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="32">
+      <c r="A59" s="35">
         <v>43922</v>
       </c>
-      <c r="B59" s="33"/>
+      <c r="B59" s="36"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -12067,10 +12057,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="32">
+      <c r="A65" s="35">
         <v>43952</v>
       </c>
-      <c r="B65" s="33"/>
+      <c r="B65" s="36"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7456147D-1F29-9D4F-A050-1E96E0555E7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9A4CBE-2181-6043-A80D-4B2954D1C4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,17 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -515,9 +525,6 @@
     <t>Chapter 1: The Machine Learning Landscape</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/</t>
-  </si>
-  <si>
     <t>The Hitchhikers Guide to Python - Code Style</t>
   </si>
   <si>
@@ -675,6 +682,9 @@
   </si>
   <si>
     <t>notebooks/02-intro-python/05-kaggle-baseline</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/dp/1492032646/</t>
   </si>
 </sst>
 </file>
@@ -7907,17 +7917,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="87.33203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="46" style="11" customWidth="1"/>
+    <col min="3" max="3" width="91.1640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="32.1640625" style="11" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="11"/>
   </cols>
@@ -7944,7 +7954,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -7983,8 +7993,8 @@
       <c r="B5" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>162</v>
+      <c r="C5" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -7995,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
@@ -8009,10 +8019,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
@@ -8023,10 +8033,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
@@ -8037,10 +8047,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
@@ -8051,10 +8061,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
@@ -8065,10 +8075,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -8079,10 +8089,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
@@ -8093,10 +8103,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>186</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -8107,10 +8117,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -8121,10 +8131,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -8135,10 +8145,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>162</v>
+        <v>190</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -8149,10 +8159,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
@@ -8163,10 +8173,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>194</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>195</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
@@ -8177,10 +8187,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>197</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -8191,10 +8201,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
@@ -8205,10 +8215,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>162</v>
+        <v>198</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
@@ -8219,10 +8229,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>162</v>
+        <v>199</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
@@ -8233,10 +8243,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>162</v>
+        <v>200</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
@@ -8247,10 +8257,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>162</v>
+        <v>201</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
@@ -8261,10 +8271,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>162</v>
+        <v>202</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
@@ -8275,10 +8285,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>162</v>
+        <v>203</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -8298,9 +8308,19 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{EB91D8CE-227F-7A43-A1D7-C63227E19CF0}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{B70E14F5-F412-CF41-BE39-B7F443EB2129}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{043FB1E4-D75A-964D-906A-9E1C52F9BF61}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{854C8AB5-CCB8-1140-92A0-AC3BDA7D4F0A}"/>
+    <hyperlink ref="C20" r:id="rId5" xr:uid="{0B9D63E4-8AAF-FF4E-94DB-10F2CA263C04}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{E24C02A4-D9F0-184E-9759-FD0BEA8A6202}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{9572AF7A-DE36-AB4F-A5CC-2573294BFC69}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{92F73B52-66FF-1341-A809-E2ED3BC71404}"/>
+    <hyperlink ref="C24" r:id="rId9" xr:uid="{3D8DFF2C-FF3E-D74A-9540-EBDB415922DC}"/>
+    <hyperlink ref="C25" r:id="rId10" xr:uid="{235CEA35-3D91-9D46-8D16-C8F1D2C2CE2B}"/>
+    <hyperlink ref="C26" r:id="rId11" xr:uid="{56C5B20A-E38E-F943-A9B8-CC5C24C25B54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -8342,7 +8362,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
@@ -8353,10 +8373,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -8370,7 +8390,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>96</v>
@@ -8381,10 +8401,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>96</v>
@@ -8395,10 +8415,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>96</v>
@@ -8409,7 +8429,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>153</v>
@@ -8423,10 +8443,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>96</v>
@@ -8437,10 +8457,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>96</v>
@@ -8451,10 +8471,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>96</v>
@@ -8465,10 +8485,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>96</v>
@@ -8479,10 +8499,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>96</v>
@@ -8493,10 +8513,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
@@ -8736,7 +8756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9A4CBE-2181-6043-A80D-4B2954D1C4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E09F333-ED70-8C46-8E74-231F021B2F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="218">
   <si>
     <t>Day</t>
   </si>
@@ -685,6 +685,12 @@
   </si>
   <si>
     <t>https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/dp/1492032646/</t>
+  </si>
+  <si>
+    <t>Video Recording of Class</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=bfb2ae23c30e4151ba55599a4e0e1d8a</t>
   </si>
 </sst>
 </file>
@@ -7917,7 +7923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
@@ -8328,9 +8334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8382,18 +8388,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34">
+    <row r="4" spans="1:4">
       <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34">
@@ -8401,10 +8407,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>96</v>
@@ -8415,41 +8421,41 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17">
+    <row r="7" spans="1:4" ht="34">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="14">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34">
-      <c r="A8" s="14">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34">
@@ -8457,10 +8463,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>96</v>
@@ -8471,10 +8477,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>96</v>
@@ -8484,11 +8490,11 @@
       <c r="A11" s="14">
         <v>4</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>212</v>
+      <c r="B11" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>96</v>
@@ -8499,10 +8505,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>96</v>
@@ -8512,19 +8518,29 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>172</v>
+      <c r="B13" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
+    <row r="14" spans="1:4" ht="34">
+      <c r="A14" s="14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="11"/>
@@ -8744,11 +8760,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2F41828B-F2A2-4149-BD2E-960C1709BE19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E09F333-ED70-8C46-8E74-231F021B2F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9681B8E-76F5-3B48-BC40-9267BF45E228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23160" yWindow="3260" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="219">
   <si>
     <t>Day</t>
   </si>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=bfb2ae23c30e4151ba55599a4e0e1d8a</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
   </si>
 </sst>
 </file>
@@ -8332,11 +8335,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8402,15 +8405,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34">
+    <row r="5" spans="1:4" s="11" customFormat="1" ht="34">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>98</v>
+      <c r="B5" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>96</v>
@@ -8421,69 +8424,69 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34">
+    <row r="7" spans="1:4" s="11" customFormat="1" ht="34">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>175</v>
+        <v>218</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17">
+    <row r="8" spans="1:4" ht="34">
       <c r="A8" s="14">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>153</v>
+        <v>173</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34">
       <c r="A9" s="14">
-        <v>4</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>207</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="14">
-        <v>4</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>208</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34">
@@ -8491,10 +8494,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>96</v>
@@ -8504,11 +8507,11 @@
       <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>212</v>
+      <c r="B12" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>96</v>
@@ -8518,11 +8521,11 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>213</v>
+      <c r="B13" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
@@ -8532,23 +8535,43 @@
       <c r="A14" s="14">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>172</v>
+      <c r="B14" s="34" t="s">
+        <v>212</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="11"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="15"/>
+    <row r="15" spans="1:4" ht="34">
+      <c r="A15" s="14">
+        <v>4</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34">
+      <c r="A16" s="14">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="11"/>
@@ -8607,11 +8630,11 @@
       <c r="C30" s="15"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="5"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="5"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3">
@@ -8636,11 +8659,11 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="5"/>
@@ -8732,11 +8755,11 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="5"/>
-      <c r="C62" s="26"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="5"/>
-      <c r="C63" s="26"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="5"/>
@@ -8758,10 +8781,18 @@
       <c r="B68" s="5"/>
       <c r="C68" s="26"/>
     </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="5"/>
+      <c r="C69" s="26"/>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="5"/>
+      <c r="C70" s="26"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
+    <hyperlink ref="C9" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{2F41828B-F2A2-4149-BD2E-960C1709BE19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8774,7 +8805,7 @@
   <dimension ref="A1:E921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9681B8E-76F5-3B48-BC40-9267BF45E228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7206A-AABA-5241-907F-749BC62E1A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23160" yWindow="3260" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="219">
   <si>
     <t>Day</t>
   </si>
@@ -8335,11 +8335,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8363,57 +8363,57 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34">
+    <row r="2" spans="1:4">
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>166</v>
+      <c r="B2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="34">
       <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="11" customFormat="1" ht="34">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>97</v>
+      <c r="B5" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>96</v>
@@ -8424,10 +8424,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>167</v>
+        <v>218</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>96</v>
@@ -8438,10 +8438,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>96</v>
@@ -8449,44 +8449,44 @@
     </row>
     <row r="8" spans="1:4" ht="34">
       <c r="A8" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34">
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="14">
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34">
+      <c r="A10" s="14">
+        <v>4</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="14">
-        <v>3</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34">
@@ -8494,10 +8494,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>96</v>
@@ -8508,10 +8508,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>96</v>
@@ -8521,11 +8521,11 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>171</v>
+      <c r="B13" s="34" t="s">
+        <v>212</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
@@ -8536,10 +8536,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>96</v>
@@ -8549,29 +8549,19 @@
       <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>213</v>
+      <c r="B15" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34">
-      <c r="A16" s="14">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>96</v>
-      </c>
+    <row r="16" spans="1:4">
+      <c r="B16" s="11"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="11"/>
@@ -8634,7 +8624,7 @@
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="11"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3">
@@ -8663,7 +8653,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="5"/>
-      <c r="C39" s="15"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="5"/>
@@ -8759,7 +8749,7 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="26"/>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="5"/>
@@ -8785,15 +8775,11 @@
       <c r="B69" s="5"/>
       <c r="C69" s="26"/>
     </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="5"/>
-      <c r="C70" s="26"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{2F41828B-F2A2-4149-BD2E-960C1709BE19}"/>
+    <hyperlink ref="C8" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{2F41828B-F2A2-4149-BD2E-960C1709BE19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7206A-AABA-5241-907F-749BC62E1A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D8FD94-6756-B54C-9F26-139116F6A1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="3260" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23160" yWindow="3260" windowWidth="25600" windowHeight="14800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="220">
   <si>
     <t>Day</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>Assignment 1</t>
+  </si>
+  <si>
+    <t>Midterm Exam</t>
   </si>
 </sst>
 </file>
@@ -2291,12 +2294,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V921"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -2818,8 +2821,8 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>102</v>
+      <c r="E17" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>143</v>
@@ -2859,7 +2862,7 @@
         <v>Thu</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>143</v>
@@ -2899,7 +2902,7 @@
         <v>Mon</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>143</v>
@@ -2939,7 +2942,7 @@
         <v>Thu</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>143</v>
@@ -8337,7 +8340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4:B7"/>
     </sheetView>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D8FD94-6756-B54C-9F26-139116F6A1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CE3667-B9EE-6647-A78A-AAE08F755CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="3260" windowWidth="25600" windowHeight="14800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23160" yWindow="3260" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="221">
   <si>
     <t>Day</t>
   </si>
@@ -697,6 +697,9 @@
   </si>
   <si>
     <t>Midterm Exam</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=508048265d664a6f917a44a9bc67cb25</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V921"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -8340,9 +8343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B7"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8450,46 +8453,46 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34">
+    <row r="8" spans="1:4">
       <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17">
+    </row>
+    <row r="9" spans="1:4" ht="34">
       <c r="A9" s="14">
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="14">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34">
-      <c r="A10" s="14">
-        <v>4</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34">
@@ -8497,10 +8500,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>96</v>
@@ -8511,10 +8514,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>96</v>
@@ -8524,11 +8527,11 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>212</v>
+      <c r="B13" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
@@ -8539,10 +8542,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>96</v>
@@ -8552,19 +8555,29 @@
       <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>172</v>
+      <c r="B15" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="15"/>
+    <row r="16" spans="1:4" ht="34">
+      <c r="A16" s="14">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="11"/>
@@ -8780,12 +8793,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
+    <hyperlink ref="C9" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{2F41828B-F2A2-4149-BD2E-960C1709BE19}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{D5388C53-61BC-2D4D-AF09-026F929E96E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CE3667-B9EE-6647-A78A-AAE08F755CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B68D4F-1B2F-6D47-8D80-58AC9899C027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23160" yWindow="3260" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8345,7 +8345,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>216</v>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B68D4F-1B2F-6D47-8D80-58AC9899C027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05992FE6-C419-A246-8C3A-01A5A7481F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23160" yWindow="3260" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="224">
   <si>
     <t>Day</t>
   </si>
@@ -687,9 +687,6 @@
     <t>https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/dp/1492032646/</t>
   </si>
   <si>
-    <t>Video Recording of Class</t>
-  </si>
-  <si>
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=bfb2ae23c30e4151ba55599a4e0e1d8a</t>
   </si>
   <si>
@@ -700,6 +697,18 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=508048265d664a6f917a44a9bc67cb25</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e18980e944fe42aa847c242e4d0d8ab8</t>
+  </si>
+  <si>
+    <t>Video Recording of Class Sec 01</t>
+  </si>
+  <si>
+    <t>Video Recording of Class Sec 02</t>
+  </si>
+  <si>
+    <t>Video Recording of Class 01/02 (Sec 02 had record failure)</t>
   </si>
 </sst>
 </file>
@@ -2825,7 +2834,7 @@
         <v>Mon</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>143</v>
@@ -8341,11 +8350,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8388,10 +8397,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -8430,7 +8439,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>159</v>
@@ -8458,55 +8467,55 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34">
+    <row r="9" spans="1:4" s="11" customFormat="1">
       <c r="A9" s="14">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17">
+    </row>
+    <row r="10" spans="1:4" ht="34">
       <c r="A10" s="14">
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17">
+      <c r="A11" s="14">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34">
-      <c r="A11" s="14">
-        <v>4</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34">
@@ -8514,10 +8523,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>96</v>
@@ -8528,10 +8537,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
@@ -8541,11 +8550,11 @@
       <c r="A14" s="14">
         <v>4</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>212</v>
+      <c r="B14" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>96</v>
@@ -8556,10 +8565,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>96</v>
@@ -8569,78 +8578,88 @@
       <c r="A16" s="14">
         <v>4</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>172</v>
+      <c r="B16" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="2:3">
+    <row r="17" spans="1:4" ht="34">
+      <c r="A17" s="14">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="B18" s="11"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:4">
       <c r="B19" s="11"/>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:4">
       <c r="B20" s="11"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:4">
       <c r="B21" s="11"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:4">
       <c r="B22" s="11"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:4">
       <c r="B23" s="11"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:4">
       <c r="B24" s="11"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:4">
       <c r="B25" s="11"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:4">
       <c r="B26" s="11"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:4">
       <c r="B27" s="11"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:4">
       <c r="B28" s="11"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:4">
       <c r="B29" s="11"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:4">
       <c r="B30" s="11"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:4">
       <c r="B31" s="11"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="5"/>
+    <row r="32" spans="1:4">
+      <c r="B32" s="11"/>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3">
@@ -8669,7 +8688,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="5"/>
@@ -8765,7 +8784,7 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="5"/>
-      <c r="C63" s="26"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="5"/>
@@ -8791,10 +8810,14 @@
       <c r="B69" s="5"/>
       <c r="C69" s="26"/>
     </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="5"/>
+      <c r="C70" s="26"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
+    <hyperlink ref="C10" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{2F41828B-F2A2-4149-BD2E-960C1709BE19}"/>
     <hyperlink ref="C8" r:id="rId4" xr:uid="{D5388C53-61BC-2D4D-AF09-026F929E96E9}"/>
   </hyperlinks>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/introml_website_fall_2020/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D8FD94-6756-B54C-9F26-139116F6A1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D010A-6A12-614A-9B1F-DF8107745396}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="3260" windowWidth="25600" windowHeight="14800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="222">
   <si>
     <t>Day</t>
   </si>
@@ -697,6 +687,12 @@
   </si>
   <si>
     <t>Midterm Exam</t>
+  </si>
+  <si>
+    <t>This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas)</t>
+  </si>
+  <si>
+    <t>assignments/assignment1/02starter</t>
   </si>
 </sst>
 </file>
@@ -853,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,6 +921,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2294,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V921"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -8342,7 +8341,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B7"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8793,8 +8792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8841,8 +8840,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="23"/>
+    <row r="3" spans="1:5" ht="51">
+      <c r="A3" s="19">
+        <v>3</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="27">
+        <f>D2+7</f>
+        <v>44091</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" s="23"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D010A-6A12-614A-9B1F-DF8107745396}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C378B4D-DE56-1840-A010-94D951435F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
     <t>This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas)</t>
   </si>
   <si>
-    <t>assignments/assignment1/02starter</t>
+    <t>assignments/assignment1/hm</t>
   </si>
 </sst>
 </file>
@@ -917,13 +917,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8793,7 +8793,7 @@
   <dimension ref="A1:E921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8844,7 +8844,7 @@
       <c r="A3" s="19">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>220</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -11664,10 +11664,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="35">
+      <c r="A5" s="36">
         <v>43709</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -11710,10 +11710,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="35">
+      <c r="A11" s="36">
         <v>43739</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -11764,10 +11764,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="35">
+      <c r="A18" s="36">
         <v>43770</v>
       </c>
-      <c r="B18" s="36"/>
+      <c r="B18" s="37"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -11834,10 +11834,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="35">
+      <c r="A27" s="36">
         <v>43800</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="37"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -11920,10 +11920,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="35">
+      <c r="A38" s="36">
         <v>43831</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="37"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -11974,10 +11974,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="35">
+      <c r="A45" s="36">
         <v>43862</v>
       </c>
-      <c r="B45" s="36"/>
+      <c r="B45" s="37"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -12004,10 +12004,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="35">
+      <c r="A49" s="36">
         <v>43891</v>
       </c>
-      <c r="B49" s="36"/>
+      <c r="B49" s="37"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -12082,10 +12082,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="35">
+      <c r="A59" s="36">
         <v>43922</v>
       </c>
-      <c r="B59" s="36"/>
+      <c r="B59" s="37"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -12128,10 +12128,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="35">
+      <c r="A65" s="36">
         <v>43952</v>
       </c>
-      <c r="B65" s="36"/>
+      <c r="B65" s="37"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C378B4D-DE56-1840-A010-94D951435F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956E683E-31BC-A842-A2F0-A5CC8625C440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="223">
   <si>
     <t>Day</t>
   </si>
@@ -485,9 +485,6 @@
     <t>Whether or not session/assignment info should be published (0/1).</t>
   </si>
   <si>
-    <t>More detail on specific approches.</t>
-  </si>
-  <si>
     <t>https://www.kaggle.com/</t>
   </si>
   <si>
@@ -693,6 +690,12 @@
   </si>
   <si>
     <t>assignments/assignment1/hm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. </t>
+  </si>
+  <si>
+    <t>This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling. Continued introduction to coding includes Numpy and Pandas</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -924,6 +927,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2293,12 +2299,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V921"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -2378,8 +2384,8 @@
       <c r="E3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>152</v>
+      <c r="F3" s="38" t="s">
+        <v>221</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -2405,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" ht="34">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2422,8 +2428,8 @@
       <c r="E5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>143</v>
+      <c r="F5" s="38" t="s">
+        <v>222</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -2821,7 +2827,7 @@
         <v>Mon</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>143</v>
@@ -7962,10 +7968,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -7974,10 +7980,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -7988,10 +7994,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8002,10 +8008,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -8016,10 +8022,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
@@ -8030,10 +8036,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
@@ -8044,10 +8050,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
@@ -8058,10 +8064,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
@@ -8072,10 +8078,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
@@ -8086,10 +8092,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -8100,10 +8106,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
@@ -8114,10 +8120,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -8128,10 +8134,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -8142,10 +8148,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -8156,10 +8162,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -8170,10 +8176,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
@@ -8184,10 +8190,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>193</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>194</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
@@ -8198,10 +8204,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -8212,10 +8218,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
@@ -8226,10 +8232,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
@@ -8240,10 +8246,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
@@ -8254,10 +8260,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
@@ -8268,10 +8274,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
@@ -8282,10 +8288,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
@@ -8296,10 +8302,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -8370,10 +8376,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
@@ -8384,10 +8390,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -8401,7 +8407,7 @@
         <v>97</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>96</v>
@@ -8415,7 +8421,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>96</v>
@@ -8426,10 +8432,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>96</v>
@@ -8440,10 +8446,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>96</v>
@@ -8454,10 +8460,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>96</v>
@@ -8468,10 +8474,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
@@ -8482,10 +8488,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>96</v>
@@ -8496,10 +8502,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>96</v>
@@ -8510,10 +8516,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>96</v>
@@ -8524,10 +8530,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
@@ -8538,10 +8544,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>96</v>
@@ -8552,10 +8558,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>96</v>
@@ -8792,8 +8798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8828,10 +8834,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="28">
         <v>44084</v>
@@ -8845,10 +8851,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>221</v>
       </c>
       <c r="D3" s="27">
         <f>D2+7</f>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956E683E-31BC-A842-A2F0-A5CC8625C440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0A9CE1-F939-A942-8F4D-EDF05E1485CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -689,13 +689,13 @@
     <t>This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas)</t>
   </si>
   <si>
-    <t>assignments/assignment1/hm</t>
-  </si>
-  <si>
     <t xml:space="preserve">This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. </t>
   </si>
   <si>
     <t>This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling. Continued introduction to coding includes Numpy and Pandas</t>
+  </si>
+  <si>
+    <t>assignments/assignment2/hm</t>
   </si>
 </sst>
 </file>
@@ -923,13 +923,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2299,7 +2299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V921"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -2384,8 +2384,8 @@
       <c r="E3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>221</v>
+      <c r="F3" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -2428,8 +2428,8 @@
       <c r="E5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>222</v>
+      <c r="F5" s="36" t="s">
+        <v>221</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -8798,8 +8798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8854,7 +8854,7 @@
         <v>219</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D3" s="27">
         <f>D2+7</f>
@@ -11670,10 +11670,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="36">
+      <c r="A5" s="37">
         <v>43709</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -11716,10 +11716,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="36">
+      <c r="A11" s="37">
         <v>43739</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -11770,10 +11770,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="36">
+      <c r="A18" s="37">
         <v>43770</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="38"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -11840,10 +11840,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="36">
+      <c r="A27" s="37">
         <v>43800</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="38"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -11926,10 +11926,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="36">
+      <c r="A38" s="37">
         <v>43831</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="38"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -11980,10 +11980,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="36">
+      <c r="A45" s="37">
         <v>43862</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="38"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -12010,10 +12010,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="36">
+      <c r="A49" s="37">
         <v>43891</v>
       </c>
-      <c r="B49" s="37"/>
+      <c r="B49" s="38"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -12088,10 +12088,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="36">
+      <c r="A59" s="37">
         <v>43922</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="38"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -12134,10 +12134,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="36">
+      <c r="A65" s="37">
         <v>43952</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="38"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0A9CE1-F939-A942-8F4D-EDF05E1485CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B545AF-7082-1143-AC22-280FAA91B3E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="229">
   <si>
     <t>Day</t>
   </si>
@@ -641,12 +641,6 @@
     <t>Google Drive</t>
   </si>
   <si>
-    <t>Presentation 1</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1_5TGwja9jfGIi5FXMpLL_j5gkVuYC7U5</t>
-  </si>
-  <si>
     <t>notebooks/02-intro-python/01-conditionals-loops</t>
   </si>
   <si>
@@ -680,9 +674,6 @@
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=bfb2ae23c30e4151ba55599a4e0e1d8a</t>
   </si>
   <si>
-    <t>Assignment 1</t>
-  </si>
-  <si>
     <t>Midterm Exam</t>
   </si>
   <si>
@@ -696,6 +687,33 @@
   </si>
   <si>
     <t>assignments/assignment2/hm</t>
+  </si>
+  <si>
+    <t>Video Recording of Class Sec 01</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=508048265d664a6f917a44a9bc67cb25</t>
+  </si>
+  <si>
+    <t>Video Recording of Class Sec 02</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e18980e944fe42aa847c242e4d0d8ab8</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/93fa92484195459490e45719d94d4fe6</t>
+  </si>
+  <si>
+    <t>https://rpi.box.com/s/g3wsswc1gvqxvamkuxee77eb4qugizvj</t>
+  </si>
+  <si>
+    <t>https://rpi.box.com/s/qdd5wlo58f5ludkxmb4yd17mgnyc0sbh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation  - Section 01 </t>
+  </si>
+  <si>
+    <t>Presentation  - Section 02</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2403,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -2429,7 +2447,7 @@
         <v>142</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -2827,7 +2845,7 @@
         <v>Mon</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>143</v>
@@ -8011,7 +8029,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -8067,7 +8085,7 @@
         <v>176</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
@@ -8165,7 +8183,7 @@
         <v>189</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -8221,7 +8239,7 @@
         <v>196</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
@@ -8235,7 +8253,7 @@
         <v>197</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
@@ -8249,7 +8267,7 @@
         <v>198</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
@@ -8263,7 +8281,7 @@
         <v>199</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
@@ -8277,7 +8295,7 @@
         <v>200</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
@@ -8291,7 +8309,7 @@
         <v>201</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
@@ -8305,7 +8323,7 @@
         <v>202</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -8343,11 +8361,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8371,17 +8389,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="19">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8389,315 +8407,411 @@
       <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>215</v>
+      <c r="B3" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34">
+    <row r="4" spans="1:4">
       <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" ht="34">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+      <c r="B5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="11" customFormat="1">
       <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" ht="34">
+      <c r="B6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34">
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>172</v>
+      <c r="B7" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34">
+    <row r="8" spans="1:4" s="11" customFormat="1" ht="34">
       <c r="A8" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17">
+    <row r="9" spans="1:4" s="11" customFormat="1">
       <c r="A9" s="14">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" s="11" customFormat="1">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34">
-      <c r="A10" s="14">
-        <v>4</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34">
+    <row r="11" spans="1:4" s="11" customFormat="1">
       <c r="A11" s="14">
-        <v>4</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1">
       <c r="A12" s="14">
-        <v>4</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" ht="34">
       <c r="A13" s="14">
-        <v>4</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>209</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34">
+    <row r="14" spans="1:4" s="11" customFormat="1" ht="34">
       <c r="A14" s="14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>210</v>
+        <v>3</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34">
+    <row r="15" spans="1:4">
       <c r="A15" s="14">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1">
+      <c r="A16" s="14">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17">
+      <c r="A19" s="14">
+        <v>4</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34">
+      <c r="A20" s="14">
+        <v>4</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34">
+      <c r="A21" s="14">
+        <v>4</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34">
+      <c r="A22" s="14">
+        <v>4</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34">
+      <c r="A23" s="14">
+        <v>4</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34">
+      <c r="A24" s="14">
+        <v>4</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34">
+      <c r="A25" s="14">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C25" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:4">
       <c r="B26" s="11"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:4">
       <c r="B27" s="11"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:4">
       <c r="B28" s="11"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:4">
       <c r="B29" s="11"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:4">
       <c r="B30" s="11"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:4">
       <c r="B31" s="11"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="5"/>
+    <row r="32" spans="1:4">
+      <c r="B32" s="11"/>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="5"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="15"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="5"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="15"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="5"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="5"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="5"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="15"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="5"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="15"/>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="15"/>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="15"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="15"/>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="5"/>
@@ -8757,40 +8871,86 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="5"/>
-      <c r="C63" s="26"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="5"/>
-      <c r="C64" s="26"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="5"/>
-      <c r="C65" s="26"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="5"/>
-      <c r="C66" s="26"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="5"/>
-      <c r="C67" s="26"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="5"/>
-      <c r="C68" s="26"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="5"/>
-      <c r="C69" s="26"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="5"/>
+      <c r="C73" s="26"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="5"/>
+      <c r="C74" s="26"/>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="5"/>
+      <c r="C75" s="26"/>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="5"/>
+      <c r="C76" s="26"/>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="5"/>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="5"/>
+      <c r="C78" s="26"/>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="5"/>
+      <c r="C79" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{2F41828B-F2A2-4149-BD2E-960C1709BE19}"/>
+    <hyperlink ref="C14" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2F41828B-F2A2-4149-BD2E-960C1709BE19}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{312DF1A7-CF11-6D4C-975B-40ACDAAFD465}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{BECE3545-1BA3-8846-85F8-9058621FE89A}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{B7351C98-8228-EB43-B620-0D9F622B962E}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{F9DD2AE6-D6CD-7543-B59E-36D6643F5156}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{B7E2A735-3AE5-314D-8B30-AA26F372366A}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{FAC20C22-B184-C64B-960D-C669F457D683}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -8798,7 +8958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8851,10 +9011,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>219</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="D3" s="27">
         <f>D2+7</f>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B545AF-7082-1143-AC22-280FAA91B3E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B7D450-3D17-C24C-8502-76C6AC7D1F81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="230">
   <si>
     <t>Day</t>
   </si>
@@ -714,6 +714,9 @@
   </si>
   <si>
     <t>Presentation  - Section 02</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e8ebc605718049ce99e07f066d7cd25f</t>
   </si>
 </sst>
 </file>
@@ -8365,7 +8368,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8592,8 +8595,12 @@
       <c r="B16" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="14">
@@ -8948,9 +8955,10 @@
     <hyperlink ref="C5" r:id="rId7" xr:uid="{F9DD2AE6-D6CD-7543-B59E-36D6643F5156}"/>
     <hyperlink ref="C11" r:id="rId8" xr:uid="{B7E2A735-3AE5-314D-8B30-AA26F372366A}"/>
     <hyperlink ref="C17" r:id="rId9" xr:uid="{FAC20C22-B184-C64B-960D-C669F457D683}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{FF2F4A37-04D6-1E42-B3EB-541E31B2F877}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B7D450-3D17-C24C-8502-76C6AC7D1F81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C067E67-FA18-A24C-9097-FEE5BD955178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="232">
   <si>
     <t>Day</t>
   </si>
@@ -717,6 +717,12 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e8ebc605718049ce99e07f066d7cd25f</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=29593001f3af4073bbcef364cef06bbc</t>
+  </si>
+  <si>
+    <t>More operationalization of Python basics as they relate to data.</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2331,7 @@
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -2475,7 +2481,7 @@
         <v>80</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -2503,7 +2509,7 @@
         <v>143</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -7955,10 +7961,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8082,7 +8088,7 @@
     </row>
     <row r="9" spans="1:4" ht="17">
       <c r="A9" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>176</v>
@@ -8366,9 +8372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8729,12 +8735,32 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="11"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="14">
+        <v>4</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="11"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="14">
+        <v>4</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="11"/>
@@ -8956,9 +8982,11 @@
     <hyperlink ref="C11" r:id="rId8" xr:uid="{B7E2A735-3AE5-314D-8B30-AA26F372366A}"/>
     <hyperlink ref="C17" r:id="rId9" xr:uid="{FAC20C22-B184-C64B-960D-C669F457D683}"/>
     <hyperlink ref="C16" r:id="rId10" xr:uid="{FF2F4A37-04D6-1E42-B3EB-541E31B2F877}"/>
+    <hyperlink ref="C27" r:id="rId11" xr:uid="{DDC56E95-2823-7A42-A58E-F236414CB5B2}"/>
+    <hyperlink ref="C26" r:id="rId12" xr:uid="{780336EA-F3E7-BD4E-8D15-7641B894992F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C067E67-FA18-A24C-9097-FEE5BD955178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25FF514-D541-D949-91BD-E1BF0A902448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -7961,7 +7961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
@@ -8372,9 +8372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25FF514-D541-D949-91BD-E1BF0A902448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5970E8-E5E4-3E4B-A687-AACAB03CAF87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,10 +719,10 @@
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e8ebc605718049ce99e07f066d7cd25f</t>
   </si>
   <si>
-    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=29593001f3af4073bbcef364cef06bbc</t>
-  </si>
-  <si>
     <t>More operationalization of Python basics as they relate to data.</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/7cf2c9cb7fe04c0ba0b4697e96c291dc</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2481,7 @@
         <v>80</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -8373,15 +8373,15 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="89.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
@@ -8720,7 +8720,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="34">
+    <row r="25" spans="1:4" ht="17">
       <c r="A25" s="14">
         <v>4</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>220</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -8983,7 +8983,7 @@
     <hyperlink ref="C17" r:id="rId9" xr:uid="{FAC20C22-B184-C64B-960D-C669F457D683}"/>
     <hyperlink ref="C16" r:id="rId10" xr:uid="{FF2F4A37-04D6-1E42-B3EB-541E31B2F877}"/>
     <hyperlink ref="C27" r:id="rId11" xr:uid="{DDC56E95-2823-7A42-A58E-F236414CB5B2}"/>
-    <hyperlink ref="C26" r:id="rId12" xr:uid="{780336EA-F3E7-BD4E-8D15-7641B894992F}"/>
+    <hyperlink ref="C26" r:id="rId12" xr:uid="{C90E3117-9B7D-7743-B508-28DFF39F6285}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5970E8-E5E4-3E4B-A687-AACAB03CAF87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805A282-52D2-B247-B1D1-93DE3B6569FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="233">
   <si>
     <t>Day</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/7cf2c9cb7fe04c0ba0b4697e96c291dc</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/53d4aef08b534337b8fe077870ee7ec0</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -800,6 +803,11 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue Light"/>
     </font>
   </fonts>
   <fills count="3">
@@ -879,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,6 +965,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8381,7 +8390,7 @@
   <cols>
     <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="89.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="107.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
@@ -8468,7 +8477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -8482,7 +8491,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" ht="34">
+    <row r="8" spans="1:4" s="11" customFormat="1" ht="17">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -8552,7 +8561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="11" customFormat="1" ht="34">
+    <row r="13" spans="1:4" s="11" customFormat="1" ht="17">
       <c r="A13" s="14">
         <v>3</v>
       </c>
@@ -8566,7 +8575,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="11" customFormat="1" ht="34">
+    <row r="14" spans="1:4" s="11" customFormat="1" ht="17">
       <c r="A14" s="14">
         <v>3</v>
       </c>
@@ -8650,7 +8659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="34">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="14">
         <v>4</v>
       </c>
@@ -8664,7 +8673,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="34">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="14">
         <v>4</v>
       </c>
@@ -8678,7 +8687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34">
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="14">
         <v>4</v>
       </c>
@@ -8692,7 +8701,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34">
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="14">
         <v>4</v>
       </c>
@@ -8706,7 +8715,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="34">
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="14">
         <v>4</v>
       </c>
@@ -8742,7 +8751,7 @@
         <v>220</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -8756,15 +8765,15 @@
         <v>222</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="18">
       <c r="B28" s="11"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="11"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805A282-52D2-B247-B1D1-93DE3B6569FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FDF921-C036-184D-A0AA-288EA6D9009F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="258">
   <si>
     <t>Day</t>
   </si>
@@ -726,6 +726,81 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/53d4aef08b534337b8fe077870ee7ec0</t>
+  </si>
+  <si>
+    <t>Introduction to visualiation,  APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We examine the basics of classess of supervised, unsupervised, reenforcement learning. Also examine overfitting and how cross validation is used for overfitting and how hypterparameters are used to optimize models. </t>
+  </si>
+  <si>
+    <t>notebooks/03-viz-api-scraper/01-intro-api-twitter</t>
+  </si>
+  <si>
+    <t>TwitterAPIs</t>
+  </si>
+  <si>
+    <t>Web Mining</t>
+  </si>
+  <si>
+    <t>notebooks/03-viz-api-scraper/02-intro-python-webmining</t>
+  </si>
+  <si>
+    <t>notebooks/03-viz-api-scraper/03-visualization-python-seaborn</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>notebooks/03-viz-api-scraper/04-strings-regular-expressions</t>
+  </si>
+  <si>
+    <t>Regular Expressions</t>
+  </si>
+  <si>
+    <t>notebooks/03-viz-api-scraper/05-features-dummies</t>
+  </si>
+  <si>
+    <t>Feature Dummies</t>
+  </si>
+  <si>
+    <t>notebooks/03-viz-api-scraper/06-matplotlib</t>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+  </si>
+  <si>
+    <t>notebooks/04-intro-modeling/01-neural-networks</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>notebooks/04-intro-modeling/02-train-test-split</t>
+  </si>
+  <si>
+    <t>Train Test Split</t>
+  </si>
+  <si>
+    <t>notebooks/04-intro-modeling/03-intro-logistic-knn</t>
+  </si>
+  <si>
+    <t>Intro Logistic Regression KNN</t>
+  </si>
+  <si>
+    <t>notebooks/04-intro-modeling/04-knn</t>
+  </si>
+  <si>
+    <t>notebooks/04-intro-modeling/05-svm-roc</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>notebooks/book/02_end_to_end_machine_learning_project</t>
+  </si>
+  <si>
+    <t>End to End</t>
   </si>
 </sst>
 </file>
@@ -2340,7 +2415,7 @@
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -2515,13 +2590,13 @@
         <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" ht="68">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -2539,14 +2614,14 @@
       <c r="E8" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>143</v>
+      <c r="F8" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="68">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -2564,14 +2639,14 @@
       <c r="E9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>143</v>
+      <c r="F9" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="51">
       <c r="A10" s="11">
         <v>4</v>
       </c>
@@ -2589,11 +2664,11 @@
       <c r="E10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>143</v>
+      <c r="F10" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -2611,7 +2686,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" ht="51">
       <c r="A11" s="11">
         <v>5</v>
       </c>
@@ -2629,11 +2704,11 @@
       <c r="E11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>143</v>
+      <c r="F11" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -8382,8 +8457,8 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8772,86 +8847,206 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18">
-      <c r="B28" s="11"/>
-      <c r="C28" s="39"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="11"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="11"/>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="11"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="11"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="11"/>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="11"/>
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="11"/>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="2:3">
+      <c r="A28" s="14">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17">
+      <c r="A29" s="14">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17">
+      <c r="A30" s="14">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17">
+      <c r="A31" s="14">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17">
+      <c r="A32" s="14">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17">
+      <c r="A33" s="14">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17">
+      <c r="A34" s="14">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17">
+      <c r="A35" s="14">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17">
+      <c r="A36" s="14">
+        <v>7</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17">
+      <c r="A37" s="14">
+        <v>8</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17">
+      <c r="A38" s="14">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17">
+      <c r="A39" s="14">
+        <v>8</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="B40" s="11"/>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="1:4">
       <c r="B41" s="11"/>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="1:4">
       <c r="B42" s="5"/>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="1:4">
       <c r="B43" s="5"/>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="1:4">
       <c r="B44" s="5"/>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="1:4">
       <c r="B45" s="5"/>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="1:4">
       <c r="B46" s="5"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="1:4">
       <c r="B47" s="5"/>
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="1:4">
       <c r="B48" s="5"/>
       <c r="C48" s="15"/>
     </row>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FDF921-C036-184D-A0AA-288EA6D9009F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1260D96B-7091-EF49-9F54-A1AF0DD497C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="260">
   <si>
     <t>Day</t>
   </si>
@@ -801,6 +801,12 @@
   </si>
   <si>
     <t>End to End</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/ceeddcf8fdb54ee9a953ed814b4727ab</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=6deccb8602db4a1984a7a0e727dffbbc</t>
   </si>
 </sst>
 </file>
@@ -1036,11 +1042,11 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8454,11 +8460,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8837,7 +8843,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>231</v>
@@ -8846,43 +8852,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18">
+    <row r="28" spans="1:4" s="11" customFormat="1">
       <c r="A28" s="14">
         <v>5</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>235</v>
+      <c r="B28" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="14">
         <v>5</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>238</v>
+      <c r="B29" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18">
       <c r="A30" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>235</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>96</v>
@@ -8893,10 +8899,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>96</v>
@@ -8907,10 +8913,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>96</v>
@@ -8921,10 +8927,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>96</v>
@@ -8932,13 +8938,13 @@
     </row>
     <row r="34" spans="1:4" ht="17">
       <c r="A34" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>96</v>
@@ -8946,13 +8952,13 @@
     </row>
     <row r="35" spans="1:4" ht="17">
       <c r="A35" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>96</v>
@@ -8963,10 +8969,10 @@
         <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>96</v>
@@ -8974,13 +8980,13 @@
     </row>
     <row r="37" spans="1:4" ht="17">
       <c r="A37" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>96</v>
@@ -8988,13 +8994,13 @@
     </row>
     <row r="38" spans="1:4" ht="17">
       <c r="A38" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>96</v>
@@ -9005,25 +9011,45 @@
         <v>8</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="B40" s="11"/>
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="B41" s="11"/>
-      <c r="C41" s="15"/>
+    <row r="40" spans="1:4" ht="17">
+      <c r="A40" s="14">
+        <v>8</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17">
+      <c r="A41" s="14">
+        <v>8</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="5"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:4">
@@ -9052,7 +9078,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="15"/>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="5"/>
@@ -9148,7 +9174,7 @@
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="5"/>
-      <c r="C73" s="26"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="5"/>
@@ -9173,6 +9199,10 @@
     <row r="79" spans="2:3">
       <c r="B79" s="5"/>
       <c r="C79" s="26"/>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="5"/>
+      <c r="C80" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9188,9 +9218,10 @@
     <hyperlink ref="C16" r:id="rId10" xr:uid="{FF2F4A37-04D6-1E42-B3EB-541E31B2F877}"/>
     <hyperlink ref="C27" r:id="rId11" xr:uid="{DDC56E95-2823-7A42-A58E-F236414CB5B2}"/>
     <hyperlink ref="C26" r:id="rId12" xr:uid="{C90E3117-9B7D-7743-B508-28DFF39F6285}"/>
+    <hyperlink ref="C29" r:id="rId13" xr:uid="{EE73612B-047D-E546-82E4-2520C4312682}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -12070,10 +12101,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="37">
+      <c r="A5" s="38">
         <v>43709</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -12116,10 +12147,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="37">
+      <c r="A11" s="38">
         <v>43739</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -12170,10 +12201,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="37">
+      <c r="A18" s="38">
         <v>43770</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="39"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -12240,10 +12271,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="37">
+      <c r="A27" s="38">
         <v>43800</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="39"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -12326,10 +12357,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="37">
+      <c r="A38" s="38">
         <v>43831</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="39"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -12380,10 +12411,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="37">
+      <c r="A45" s="38">
         <v>43862</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="39"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -12410,10 +12441,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="37">
+      <c r="A49" s="38">
         <v>43891</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="39"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -12488,10 +12519,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="37">
+      <c r="A59" s="38">
         <v>43922</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="39"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -12534,10 +12565,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="37">
+      <c r="A65" s="38">
         <v>43952</v>
       </c>
-      <c r="B65" s="38"/>
+      <c r="B65" s="39"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1260D96B-7091-EF49-9F54-A1AF0DD497C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1122FFCA-D1CC-C747-A4FE-9F1D6844E897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="262">
   <si>
     <t>Day</t>
   </si>
@@ -807,6 +807,12 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=6deccb8602db4a1984a7a0e727dffbbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This has us create a few different functions and our first simple model. </t>
+  </si>
+  <si>
+    <t>assignments/assignment3/hm</t>
   </si>
 </sst>
 </file>
@@ -8462,7 +8468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
@@ -9229,8 +9235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9295,8 +9301,22 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="C4" s="23"/>
+    <row r="4" spans="1:5" ht="34">
+      <c r="A4" s="19">
+        <v>5</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="27">
+        <v>44098</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="23"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1122FFCA-D1CC-C747-A4FE-9F1D6844E897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87292F37-E326-884A-87C5-4CED202E000E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="264">
   <si>
     <t>Day</t>
   </si>
@@ -813,6 +813,12 @@
   </si>
   <si>
     <t>assignments/assignment3/hm</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=84fd624c95554f8489dfc64d260245df</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/playback/75e8ebaed323473daf4d9c088a767a89</t>
   </si>
 </sst>
 </file>
@@ -8466,11 +8472,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8914,7 +8920,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" s="11" customFormat="1" ht="17">
       <c r="A32" s="14">
         <v>6</v>
       </c>
@@ -8928,43 +8934,43 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" s="11" customFormat="1" ht="17">
       <c r="A33" s="14">
         <v>6</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>242</v>
+      <c r="B33" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="14">
         <v>6</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>243</v>
+      <c r="B34" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17">
       <c r="A35" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>96</v>
@@ -8975,10 +8981,10 @@
         <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>96</v>
@@ -8989,10 +8995,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>96</v>
@@ -9003,10 +9009,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>96</v>
@@ -9014,13 +9020,13 @@
     </row>
     <row r="39" spans="1:4" ht="17">
       <c r="A39" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>96</v>
@@ -9028,13 +9034,13 @@
     </row>
     <row r="40" spans="1:4" ht="17">
       <c r="A40" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>96</v>
@@ -9045,25 +9051,45 @@
         <v>8</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="B42" s="11"/>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" s="5"/>
-      <c r="C43" s="15"/>
+    <row r="42" spans="1:4" ht="17">
+      <c r="A42" s="14">
+        <v>8</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17">
+      <c r="A43" s="14">
+        <v>8</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="B44" s="5"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:4">
@@ -9088,11 +9114,11 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="15"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="15"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="5"/>
@@ -9184,11 +9210,11 @@
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="5"/>
-      <c r="C74" s="26"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="5"/>
-      <c r="C75" s="26"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="5"/>
@@ -9209,6 +9235,14 @@
     <row r="80" spans="2:3">
       <c r="B80" s="5"/>
       <c r="C80" s="26"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="5"/>
+      <c r="C81" s="26"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="5"/>
+      <c r="C82" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9225,9 +9259,10 @@
     <hyperlink ref="C27" r:id="rId11" xr:uid="{DDC56E95-2823-7A42-A58E-F236414CB5B2}"/>
     <hyperlink ref="C26" r:id="rId12" xr:uid="{C90E3117-9B7D-7743-B508-28DFF39F6285}"/>
     <hyperlink ref="C29" r:id="rId13" xr:uid="{EE73612B-047D-E546-82E4-2520C4312682}"/>
+    <hyperlink ref="C34" r:id="rId14" xr:uid="{AADF7D9F-9BC1-874E-966C-8D5DEEC7384F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -9235,8 +9270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87292F37-E326-884A-87C5-4CED202E000E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184B3324-0AB4-BE44-B156-8EFB8695F762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -2428,12 +2428,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V921"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8474,7 +8474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184B3324-0AB4-BE44-B156-8EFB8695F762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8708B5E9-CDF6-0B4A-8E67-E16F10D37F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="267">
   <si>
     <t>Day</t>
   </si>
@@ -819,6 +819,15 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/playback/75e8ebaed323473daf4d9c088a767a89</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=535c1cf442ad41f5a6de4e50dd8ab646</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e210b8b46f824822b383e452c26ff3af</t>
+  </si>
+  <si>
+    <t>Some exercises with visualization and web scraping.</t>
   </si>
 </sst>
 </file>
@@ -980,7 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,6 +1068,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2428,7 +2443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V921"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -8476,7 +8491,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -9004,43 +9019,43 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" s="11" customFormat="1" ht="17">
       <c r="A38" s="14">
         <v>7</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>247</v>
+      <c r="B38" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>264</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="11" customFormat="1" ht="17">
       <c r="A39" s="14">
         <v>7</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>249</v>
+      <c r="B39" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>265</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17">
       <c r="A40" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>96</v>
@@ -9051,10 +9066,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>96</v>
@@ -9065,10 +9080,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>96</v>
@@ -9079,22 +9094,42 @@
         <v>8</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="B44" s="11"/>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="B45" s="5"/>
-      <c r="C45" s="15"/>
+    <row r="44" spans="1:4" ht="17">
+      <c r="A44" s="14">
+        <v>8</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17">
+      <c r="A45" s="14">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="B46" s="5"/>
@@ -9260,9 +9295,11 @@
     <hyperlink ref="C26" r:id="rId12" xr:uid="{C90E3117-9B7D-7743-B508-28DFF39F6285}"/>
     <hyperlink ref="C29" r:id="rId13" xr:uid="{EE73612B-047D-E546-82E4-2520C4312682}"/>
     <hyperlink ref="C34" r:id="rId14" xr:uid="{AADF7D9F-9BC1-874E-966C-8D5DEEC7384F}"/>
+    <hyperlink ref="C38" r:id="rId15" xr:uid="{C6350F01-8DE4-3E4E-8E54-59C07EF8D04A}"/>
+    <hyperlink ref="C39" r:id="rId16" xr:uid="{3B830422-E592-7C46-870B-1B503D9984F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -9270,8 +9307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9353,8 +9390,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="C5" s="23"/>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="19">
+        <v>7</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="27">
+        <f>D4+7</f>
+        <v>44105</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" s="23"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8708B5E9-CDF6-0B4A-8E67-E16F10D37F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604973D-D4D3-3143-A51E-8991B891A1B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="268">
   <si>
     <t>Day</t>
   </si>
@@ -828,6 +828,9 @@
   </si>
   <si>
     <t>Some exercises with visualization and web scraping.</t>
+  </si>
+  <si>
+    <t>assignments/assignment4/hm</t>
   </si>
 </sst>
 </file>
@@ -9308,7 +9311,7 @@
   <dimension ref="A1:E921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9398,7 +9401,7 @@
         <v>266</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D5" s="27">
         <f>D4+7</f>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604973D-D4D3-3143-A51E-8991B891A1B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98C999E-0E87-AF4D-9988-66FFD9591AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -821,9 +821,6 @@
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/playback/75e8ebaed323473daf4d9c088a767a89</t>
   </si>
   <si>
-    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=535c1cf442ad41f5a6de4e50dd8ab646</t>
-  </si>
-  <si>
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e210b8b46f824822b383e452c26ff3af</t>
   </si>
   <si>
@@ -831,6 +828,9 @@
   </si>
   <si>
     <t>assignments/assignment4/hm</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/81e5a43124864832b5558c03731fc132</t>
   </si>
 </sst>
 </file>
@@ -1067,16 +1067,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8492,9 +8492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD44"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -9022,15 +9022,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="11" customFormat="1" ht="17">
+    <row r="38" spans="1:4" s="11" customFormat="1">
       <c r="A38" s="14">
         <v>7</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>264</v>
+      <c r="C38" s="38" t="s">
+        <v>267</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
@@ -9043,8 +9043,8 @@
       <c r="B39" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="41" t="s">
-        <v>265</v>
+      <c r="C39" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>3</v>
@@ -9298,11 +9298,10 @@
     <hyperlink ref="C26" r:id="rId12" xr:uid="{C90E3117-9B7D-7743-B508-28DFF39F6285}"/>
     <hyperlink ref="C29" r:id="rId13" xr:uid="{EE73612B-047D-E546-82E4-2520C4312682}"/>
     <hyperlink ref="C34" r:id="rId14" xr:uid="{AADF7D9F-9BC1-874E-966C-8D5DEEC7384F}"/>
-    <hyperlink ref="C38" r:id="rId15" xr:uid="{C6350F01-8DE4-3E4E-8E54-59C07EF8D04A}"/>
-    <hyperlink ref="C39" r:id="rId16" xr:uid="{3B830422-E592-7C46-870B-1B503D9984F0}"/>
+    <hyperlink ref="C39" r:id="rId15" xr:uid="{3B830422-E592-7C46-870B-1B503D9984F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -9310,7 +9309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -9398,10 +9397,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>266</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>267</v>
       </c>
       <c r="D5" s="27">
         <f>D4+7</f>
@@ -12211,10 +12210,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="38">
+      <c r="A5" s="40">
         <v>43709</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -12257,10 +12256,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="38">
+      <c r="A11" s="40">
         <v>43739</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -12311,10 +12310,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="38">
+      <c r="A18" s="40">
         <v>43770</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -12381,10 +12380,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="38">
+      <c r="A27" s="40">
         <v>43800</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="41"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -12467,10 +12466,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="38">
+      <c r="A38" s="40">
         <v>43831</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="41"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -12521,10 +12520,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="38">
+      <c r="A45" s="40">
         <v>43862</v>
       </c>
-      <c r="B45" s="39"/>
+      <c r="B45" s="41"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -12551,10 +12550,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="38">
+      <c r="A49" s="40">
         <v>43891</v>
       </c>
-      <c r="B49" s="39"/>
+      <c r="B49" s="41"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -12629,10 +12628,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="38">
+      <c r="A59" s="40">
         <v>43922</v>
       </c>
-      <c r="B59" s="39"/>
+      <c r="B59" s="41"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -12675,10 +12674,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="38">
+      <c r="A65" s="40">
         <v>43952</v>
       </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="41"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98C999E-0E87-AF4D-9988-66FFD9591AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12242E-9FD2-8748-B97A-F2FD7DA2B026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
     <t>assignments/assignment4/hm</t>
   </si>
   <si>
-    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/81e5a43124864832b5558c03731fc132</t>
+    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/6bd4d10ef7a443838e020218e96144f5</t>
   </si>
 </sst>
 </file>
@@ -8493,7 +8493,7 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
